--- a/raw_data/20200818_saline/20200818_Sensor3_Test_52.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_52.xlsx
@@ -1,840 +1,1256 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34218AB9-CDF6-40C0-816A-151CA684D895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>46457.601933</v>
+        <v>46457.601932999998</v>
       </c>
       <c r="B2" s="1">
-        <v>12.904889</v>
+        <v>12.904889000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1148.300000</v>
+        <v>1148.3</v>
       </c>
       <c r="D2" s="1">
-        <v>-233.416000</v>
+        <v>-233.416</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>46468.001060</v>
+        <v>46468.001060000002</v>
       </c>
       <c r="G2" s="1">
         <v>12.907778</v>
       </c>
       <c r="H2" s="1">
-        <v>1166.230000</v>
+        <v>1166.23</v>
       </c>
       <c r="I2" s="1">
-        <v>-198.889000</v>
+        <v>-198.88900000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>46478.422498</v>
       </c>
       <c r="L2" s="1">
-        <v>12.910673</v>
+        <v>12.910672999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1193.970000</v>
+        <v>1193.97</v>
       </c>
       <c r="N2" s="1">
-        <v>-142.898000</v>
+        <v>-142.898</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>46488.929782</v>
+        <v>46488.929781999999</v>
       </c>
       <c r="Q2" s="1">
         <v>12.913592</v>
       </c>
       <c r="R2" s="1">
-        <v>1202.470000</v>
+        <v>1202.47</v>
       </c>
       <c r="S2" s="1">
-        <v>-123.727000</v>
+        <v>-123.727</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>46499.801060</v>
+        <v>46499.801059999998</v>
       </c>
       <c r="V2" s="1">
         <v>12.916611</v>
       </c>
       <c r="W2" s="1">
-        <v>1211.010000</v>
+        <v>1211.01</v>
       </c>
       <c r="X2" s="1">
-        <v>-105.148000</v>
+        <v>-105.148</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>46510.179846</v>
+        <v>46510.179845999999</v>
       </c>
       <c r="AA2" s="1">
         <v>12.919494</v>
       </c>
       <c r="AB2" s="1">
-        <v>1219.610000</v>
+        <v>1219.6099999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.585400</v>
+        <v>-89.585400000000007</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>46521.103240</v>
+        <v>46521.103239999997</v>
       </c>
       <c r="AF2" s="1">
-        <v>12.922529</v>
+        <v>12.922529000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1224.820000</v>
+        <v>1224.82</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.705100</v>
+        <v>-85.705100000000002</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>46531.531626</v>
+        <v>46531.531626000004</v>
       </c>
       <c r="AK2" s="1">
-        <v>12.925425</v>
+        <v>12.925425000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1232.390000</v>
+        <v>1232.3900000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.598200</v>
+        <v>-89.598200000000006</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>46542.102365</v>
+        <v>46542.102364999999</v>
       </c>
       <c r="AP2" s="1">
         <v>12.928362</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1240.580000</v>
+        <v>1240.58</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.901000</v>
+        <v>-101.901</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>46553.441933</v>
+        <v>46553.441933000002</v>
       </c>
       <c r="AU2" s="1">
         <v>12.931512</v>
       </c>
       <c r="AV2" s="1">
-        <v>1250.650000</v>
+        <v>1250.6500000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.581000</v>
+        <v>-121.581</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>46563.933311</v>
+        <v>46563.933311000001</v>
       </c>
       <c r="AZ2" s="1">
         <v>12.934426</v>
       </c>
       <c r="BA2" s="1">
-        <v>1259.160000</v>
+        <v>1259.1600000000001</v>
       </c>
       <c r="BB2" s="1">
-        <v>-139.329000</v>
+        <v>-139.32900000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>46574.532787</v>
+        <v>46574.532786999996</v>
       </c>
       <c r="BE2" s="1">
-        <v>12.937370</v>
+        <v>12.93737</v>
       </c>
       <c r="BF2" s="1">
-        <v>1299.480000</v>
+        <v>1299.48</v>
       </c>
       <c r="BG2" s="1">
-        <v>-222.401000</v>
+        <v>-222.40100000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>46585.160068</v>
+        <v>46585.160067999997</v>
       </c>
       <c r="BJ2" s="1">
         <v>12.940322</v>
       </c>
       <c r="BK2" s="1">
-        <v>1369.420000</v>
+        <v>1369.42</v>
       </c>
       <c r="BL2" s="1">
-        <v>-360.908000</v>
+        <v>-360.90800000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>46595.950535</v>
+        <v>46595.950535000004</v>
       </c>
       <c r="BO2" s="1">
-        <v>12.943320</v>
+        <v>12.94332</v>
       </c>
       <c r="BP2" s="1">
-        <v>1484.520000</v>
+        <v>1484.52</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-586.769000</v>
+        <v>-586.76900000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>46606.533672</v>
+        <v>46606.533671999998</v>
       </c>
       <c r="BT2" s="1">
         <v>12.946259</v>
       </c>
       <c r="BU2" s="1">
-        <v>1617.430000</v>
+        <v>1617.43</v>
       </c>
       <c r="BV2" s="1">
-        <v>-842.582000</v>
+        <v>-842.58199999999999</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>46617.400521</v>
+        <v>46617.400521000003</v>
       </c>
       <c r="BY2" s="1">
         <v>12.949278</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1771.520000</v>
+        <v>1771.52</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1120.050000</v>
+        <v>-1120.05</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>46628.342267</v>
       </c>
       <c r="CD2" s="1">
-        <v>12.952317</v>
+        <v>12.952317000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>2193.810000</v>
+        <v>2193.81</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1795.600000</v>
+        <v>-1795.6</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>46457.981403</v>
+        <v>46457.981402999998</v>
       </c>
       <c r="B3" s="1">
         <v>12.904995</v>
       </c>
       <c r="C3" s="1">
-        <v>1147.900000</v>
+        <v>1147.9000000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-233.231000</v>
+        <v>-233.23099999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>46468.343822</v>
+        <v>46468.343822000003</v>
       </c>
       <c r="G3" s="1">
         <v>12.907873</v>
       </c>
       <c r="H3" s="1">
-        <v>1167.120000</v>
+        <v>1167.1199999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-198.923000</v>
+        <v>-198.923</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>46478.809872</v>
+        <v>46478.809871999998</v>
       </c>
       <c r="L3" s="1">
         <v>12.910781</v>
       </c>
       <c r="M3" s="1">
-        <v>1194.110000</v>
+        <v>1194.1099999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-142.707000</v>
+        <v>-142.70699999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>46489.661842</v>
+        <v>46489.661842000001</v>
       </c>
       <c r="Q3" s="1">
         <v>12.913795</v>
       </c>
       <c r="R3" s="1">
-        <v>1202.490000</v>
+        <v>1202.49</v>
       </c>
       <c r="S3" s="1">
-        <v>-123.670000</v>
+        <v>-123.67</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>46500.148261</v>
+        <v>46500.148261000002</v>
       </c>
       <c r="V3" s="1">
         <v>12.916708</v>
       </c>
       <c r="W3" s="1">
-        <v>1210.810000</v>
+        <v>1210.81</v>
       </c>
       <c r="X3" s="1">
-        <v>-104.982000</v>
+        <v>-104.982</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>46510.564742</v>
+        <v>46510.564742000002</v>
       </c>
       <c r="AA3" s="1">
         <v>12.919601</v>
       </c>
       <c r="AB3" s="1">
-        <v>1219.690000</v>
+        <v>1219.69</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.552100</v>
+        <v>-89.552099999999996</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>46521.467800</v>
+        <v>46521.467799999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>12.922630</v>
+        <v>12.92263</v>
       </c>
       <c r="AG3" s="1">
-        <v>1224.850000</v>
+        <v>1224.8499999999999</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.679600</v>
+        <v>-85.679599999999994</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>46532.226058</v>
@@ -843,13 +1259,13 @@
         <v>12.925618</v>
       </c>
       <c r="AL3" s="1">
-        <v>1232.360000</v>
+        <v>1232.3599999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.584300</v>
+        <v>-89.584299999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>46542.810651</v>
@@ -858,210 +1274,210 @@
         <v>12.928559</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1240.540000</v>
+        <v>1240.54</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.923000</v>
+        <v>-101.923</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>46553.871437</v>
+        <v>46553.871437000002</v>
       </c>
       <c r="AU3" s="1">
-        <v>12.931631</v>
+        <v>12.931630999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1250.650000</v>
+        <v>1250.6500000000001</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.592000</v>
+        <v>-121.592</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>46564.293871</v>
+        <v>46564.293871000002</v>
       </c>
       <c r="AZ3" s="1">
         <v>12.934526</v>
       </c>
       <c r="BA3" s="1">
-        <v>1259.140000</v>
+        <v>1259.1400000000001</v>
       </c>
       <c r="BB3" s="1">
-        <v>-139.339000</v>
+        <v>-139.339</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>46574.896354</v>
+        <v>46574.896353999997</v>
       </c>
       <c r="BE3" s="1">
         <v>12.937471</v>
       </c>
       <c r="BF3" s="1">
-        <v>1299.450000</v>
+        <v>1299.45</v>
       </c>
       <c r="BG3" s="1">
-        <v>-222.433000</v>
+        <v>-222.43299999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>46585.551445</v>
+        <v>46585.551444999997</v>
       </c>
       <c r="BJ3" s="1">
         <v>12.940431</v>
       </c>
       <c r="BK3" s="1">
-        <v>1369.420000</v>
+        <v>1369.42</v>
       </c>
       <c r="BL3" s="1">
-        <v>-360.912000</v>
+        <v>-360.91199999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>46596.374118</v>
       </c>
       <c r="BO3" s="1">
-        <v>12.943437</v>
+        <v>12.943436999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1484.510000</v>
+        <v>1484.51</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-586.770000</v>
+        <v>-586.77</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>46606.960759</v>
+        <v>46606.960759000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>12.946378</v>
+        <v>12.946377999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1617.370000</v>
+        <v>1617.37</v>
       </c>
       <c r="BV3" s="1">
-        <v>-842.537000</v>
+        <v>-842.53700000000003</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>46617.577096</v>
+        <v>46617.577096000001</v>
       </c>
       <c r="BY3" s="1">
         <v>12.949327</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1771.340000</v>
+        <v>1771.34</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1120.020000</v>
+        <v>-1120.02</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>46628.570933</v>
+        <v>46628.570933000003</v>
       </c>
       <c r="CD3" s="1">
-        <v>12.952381</v>
+        <v>12.952381000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>2193.550000</v>
+        <v>2193.5500000000002</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1793.940000</v>
+        <v>-1793.94</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>46458.325386</v>
+        <v>46458.325385999997</v>
       </c>
       <c r="B4" s="1">
-        <v>12.905090</v>
+        <v>12.90509</v>
       </c>
       <c r="C4" s="1">
-        <v>1147.980000</v>
+        <v>1147.98</v>
       </c>
       <c r="D4" s="1">
-        <v>-233.404000</v>
+        <v>-233.404</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>46469.034222</v>
+        <v>46469.034222000002</v>
       </c>
       <c r="G4" s="1">
-        <v>12.908065</v>
+        <v>12.908065000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1166.800000</v>
+        <v>1166.8</v>
       </c>
       <c r="I4" s="1">
-        <v>-198.450000</v>
+        <v>-198.45</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>46479.493856</v>
+        <v>46479.493856000001</v>
       </c>
       <c r="L4" s="1">
         <v>12.910971</v>
       </c>
       <c r="M4" s="1">
-        <v>1193.870000</v>
+        <v>1193.8699999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-142.633000</v>
+        <v>-142.63300000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>46490.006289</v>
+        <v>46490.006288999997</v>
       </c>
       <c r="Q4" s="1">
         <v>12.913891</v>
       </c>
       <c r="R4" s="1">
-        <v>1202.470000</v>
+        <v>1202.47</v>
       </c>
       <c r="S4" s="1">
-        <v>-123.575000</v>
+        <v>-123.575</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>46500.493011</v>
+        <v>46500.493010999999</v>
       </c>
       <c r="V4" s="1">
-        <v>12.916804</v>
+        <v>12.916804000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1211.100000</v>
+        <v>1211.0999999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-104.924000</v>
+        <v>-104.92400000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>46510.912439</v>
@@ -1070,724 +1486,724 @@
         <v>12.919698</v>
       </c>
       <c r="AB4" s="1">
-        <v>1219.590000</v>
+        <v>1219.5899999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.666500</v>
+        <v>-89.666499999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>46522.120536</v>
+        <v>46522.120536000002</v>
       </c>
       <c r="AF4" s="1">
-        <v>12.922811</v>
+        <v>12.922810999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1224.860000</v>
+        <v>1224.8599999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.701500</v>
+        <v>-85.701499999999996</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>46532.611913</v>
+        <v>46532.611913000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>12.925726</v>
+        <v>12.925725999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1232.380000</v>
+        <v>1232.3800000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.599400</v>
+        <v>-89.599400000000003</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>46543.218895</v>
+        <v>46543.218894999998</v>
       </c>
       <c r="AP4" s="1">
-        <v>12.928672</v>
+        <v>12.928672000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1240.570000</v>
+        <v>1240.57</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.922000</v>
+        <v>-101.922</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>46554.234508</v>
+        <v>46554.234508000001</v>
       </c>
       <c r="AU4" s="1">
         <v>12.931732</v>
       </c>
       <c r="AV4" s="1">
-        <v>1250.650000</v>
+        <v>1250.6500000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.598000</v>
+        <v>-121.598</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>46564.653011</v>
+        <v>46564.653011000002</v>
       </c>
       <c r="AZ4" s="1">
         <v>12.934626</v>
       </c>
       <c r="BA4" s="1">
-        <v>1259.180000</v>
+        <v>1259.18</v>
       </c>
       <c r="BB4" s="1">
-        <v>-139.360000</v>
+        <v>-139.36000000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>46575.257936</v>
+        <v>46575.257936000002</v>
       </c>
       <c r="BE4" s="1">
-        <v>12.937572</v>
+        <v>12.937571999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1299.470000</v>
+        <v>1299.47</v>
       </c>
       <c r="BG4" s="1">
-        <v>-222.426000</v>
+        <v>-222.42599999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>46585.977972</v>
+        <v>46585.977972000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>12.940549</v>
+        <v>12.940549000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1369.400000</v>
+        <v>1369.4</v>
       </c>
       <c r="BL4" s="1">
-        <v>-360.880000</v>
+        <v>-360.88</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>46596.769960</v>
+        <v>46596.769959999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>12.943547</v>
+        <v>12.943547000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1484.540000</v>
+        <v>1484.54</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-586.816000</v>
+        <v>-586.81600000000003</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>46607.383350</v>
+        <v>46607.383349999996</v>
       </c>
       <c r="BT4" s="1">
-        <v>12.946495</v>
+        <v>12.946495000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1617.300000</v>
+        <v>1617.3</v>
       </c>
       <c r="BV4" s="1">
-        <v>-842.601000</v>
+        <v>-842.601</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>46617.998233</v>
+        <v>46617.998232999998</v>
       </c>
       <c r="BY4" s="1">
         <v>12.949444</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1771.310000</v>
+        <v>1771.31</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1120.040000</v>
+        <v>-1120.04</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>46629.105149</v>
+        <v>46629.105149000003</v>
       </c>
       <c r="CD4" s="1">
         <v>12.952529</v>
       </c>
       <c r="CE4" s="1">
-        <v>2195.210000</v>
+        <v>2195.21</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1795.960000</v>
+        <v>-1795.96</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>46459.006138</v>
+        <v>46459.006137999997</v>
       </c>
       <c r="B5" s="1">
         <v>12.905279</v>
       </c>
       <c r="C5" s="1">
-        <v>1148.080000</v>
+        <v>1148.08</v>
       </c>
       <c r="D5" s="1">
-        <v>-233.307000</v>
+        <v>-233.30699999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>46469.380925</v>
+        <v>46469.380924999998</v>
       </c>
       <c r="G5" s="1">
         <v>12.908161</v>
       </c>
       <c r="H5" s="1">
-        <v>1165.800000</v>
+        <v>1165.8</v>
       </c>
       <c r="I5" s="1">
-        <v>-198.681000</v>
+        <v>-198.68100000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>46479.840559</v>
+        <v>46479.840558999997</v>
       </c>
       <c r="L5" s="1">
-        <v>12.911067</v>
+        <v>12.911066999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1193.840000</v>
+        <v>1193.8399999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-142.789000</v>
+        <v>-142.78899999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>46490.360209</v>
+        <v>46490.360208999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>12.913989</v>
+        <v>12.913989000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>1202.500000</v>
+        <v>1202.5</v>
       </c>
       <c r="S5" s="1">
-        <v>-123.536000</v>
+        <v>-123.536</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>46501.145218</v>
+        <v>46501.145217999998</v>
       </c>
       <c r="V5" s="1">
         <v>12.916985</v>
       </c>
       <c r="W5" s="1">
-        <v>1210.750000</v>
+        <v>1210.75</v>
       </c>
       <c r="X5" s="1">
-        <v>-104.989000</v>
+        <v>-104.989</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>46511.571125</v>
+        <v>46511.571125000002</v>
       </c>
       <c r="AA5" s="1">
         <v>12.919881</v>
       </c>
       <c r="AB5" s="1">
-        <v>1219.600000</v>
+        <v>1219.5999999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.673500</v>
+        <v>-89.673500000000004</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>46522.493068</v>
+        <v>46522.493068000003</v>
       </c>
       <c r="AF5" s="1">
         <v>12.922915</v>
       </c>
       <c r="AG5" s="1">
-        <v>1224.860000</v>
+        <v>1224.8599999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.686300</v>
+        <v>-85.686300000000003</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>46532.961619</v>
+        <v>46532.961619000002</v>
       </c>
       <c r="AK5" s="1">
-        <v>12.925823</v>
+        <v>12.925822999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1232.370000</v>
+        <v>1232.3699999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.605400</v>
+        <v>-89.605400000000003</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>46543.606234</v>
+        <v>46543.606233999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>12.928780</v>
+        <v>12.92878</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1240.540000</v>
+        <v>1240.54</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.894000</v>
+        <v>-101.89400000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>46554.601052</v>
+        <v>46554.601051999998</v>
       </c>
       <c r="AU5" s="1">
         <v>12.931834</v>
       </c>
       <c r="AV5" s="1">
-        <v>1250.650000</v>
+        <v>1250.6500000000001</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.602000</v>
+        <v>-121.602</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>46565.077055</v>
+        <v>46565.077055000002</v>
       </c>
       <c r="AZ5" s="1">
         <v>12.934744</v>
       </c>
       <c r="BA5" s="1">
-        <v>1259.160000</v>
+        <v>1259.1600000000001</v>
       </c>
       <c r="BB5" s="1">
-        <v>-139.321000</v>
+        <v>-139.321</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>46575.680528</v>
+        <v>46575.680527999997</v>
       </c>
       <c r="BE5" s="1">
-        <v>12.937689</v>
+        <v>12.937689000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1299.450000</v>
+        <v>1299.45</v>
       </c>
       <c r="BG5" s="1">
-        <v>-222.381000</v>
+        <v>-222.381</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>46586.304369</v>
+        <v>46586.304368999998</v>
       </c>
       <c r="BJ5" s="1">
-        <v>12.940640</v>
+        <v>12.94064</v>
       </c>
       <c r="BK5" s="1">
-        <v>1369.460000</v>
+        <v>1369.46</v>
       </c>
       <c r="BL5" s="1">
-        <v>-360.942000</v>
+        <v>-360.94200000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>46597.192548</v>
+        <v>46597.192547999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>12.943665</v>
+        <v>12.943664999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1484.550000</v>
+        <v>1484.55</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-586.756000</v>
+        <v>-586.75599999999997</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>46607.798499</v>
+        <v>46607.798498999997</v>
       </c>
       <c r="BT5" s="1">
-        <v>12.946611</v>
+        <v>12.946611000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1617.200000</v>
+        <v>1617.2</v>
       </c>
       <c r="BV5" s="1">
-        <v>-842.555000</v>
+        <v>-842.55499999999995</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>46618.417817</v>
+        <v>46618.417817000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>12.949561</v>
+        <v>12.949560999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1771.300000</v>
+        <v>1771.3</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1120.080000</v>
+        <v>-1120.08</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>46629.647241</v>
+        <v>46629.647240999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>12.952680</v>
+        <v>12.952680000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>2195.090000</v>
+        <v>2195.09</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1793.400000</v>
+        <v>-1793.4</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>46459.347391</v>
+        <v>46459.347391000003</v>
       </c>
       <c r="B6" s="1">
         <v>12.905374</v>
       </c>
       <c r="C6" s="1">
-        <v>1148.070000</v>
+        <v>1148.07</v>
       </c>
       <c r="D6" s="1">
-        <v>-233.301000</v>
+        <v>-233.30099999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>46469.727660</v>
+        <v>46469.727659999997</v>
       </c>
       <c r="G6" s="1">
         <v>12.908258</v>
       </c>
       <c r="H6" s="1">
-        <v>1166.660000</v>
+        <v>1166.6600000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-198.727000</v>
+        <v>-198.727</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>46480.495810</v>
+        <v>46480.49581</v>
       </c>
       <c r="L6" s="1">
         <v>12.911249</v>
       </c>
       <c r="M6" s="1">
-        <v>1193.970000</v>
+        <v>1193.97</v>
       </c>
       <c r="N6" s="1">
-        <v>-142.751000</v>
+        <v>-142.751</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>46491.018431</v>
+        <v>46491.018430999997</v>
       </c>
       <c r="Q6" s="1">
-        <v>12.914172</v>
+        <v>12.914172000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1202.520000</v>
+        <v>1202.52</v>
       </c>
       <c r="S6" s="1">
-        <v>-123.573000</v>
+        <v>-123.57299999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>46501.523202</v>
+        <v>46501.523201999997</v>
       </c>
       <c r="V6" s="1">
-        <v>12.917090</v>
+        <v>12.91709</v>
       </c>
       <c r="W6" s="1">
-        <v>1211.200000</v>
+        <v>1211.2</v>
       </c>
       <c r="X6" s="1">
-        <v>-104.916000</v>
+        <v>-104.916</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>46511.960982</v>
+        <v>46511.960981999997</v>
       </c>
       <c r="AA6" s="1">
-        <v>12.919989</v>
+        <v>12.919988999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1219.460000</v>
+        <v>1219.46</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.555700</v>
+        <v>-89.555700000000002</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>46522.846223</v>
       </c>
       <c r="AF6" s="1">
-        <v>12.923013</v>
+        <v>12.923012999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1224.860000</v>
+        <v>1224.8599999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.738100</v>
+        <v>-85.738100000000003</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>46533.310807</v>
+        <v>46533.310807000002</v>
       </c>
       <c r="AK6" s="1">
-        <v>12.925920</v>
+        <v>12.92592</v>
       </c>
       <c r="AL6" s="1">
-        <v>1232.370000</v>
+        <v>1232.3699999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.605000</v>
+        <v>-89.605000000000004</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>46543.988153</v>
+        <v>46543.988152999998</v>
       </c>
       <c r="AP6" s="1">
         <v>12.928886</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1240.520000</v>
+        <v>1240.52</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.917000</v>
+        <v>-101.917</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>46555.023644</v>
+        <v>46555.023644000001</v>
       </c>
       <c r="AU6" s="1">
         <v>12.931951</v>
       </c>
       <c r="AV6" s="1">
-        <v>1250.660000</v>
+        <v>1250.6600000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.601000</v>
+        <v>-121.601</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>46565.370687</v>
+        <v>46565.370687000002</v>
       </c>
       <c r="AZ6" s="1">
         <v>12.934825</v>
       </c>
       <c r="BA6" s="1">
-        <v>1259.160000</v>
+        <v>1259.1600000000001</v>
       </c>
       <c r="BB6" s="1">
-        <v>-139.350000</v>
+        <v>-139.35</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>46575.981103</v>
+        <v>46575.981102999998</v>
       </c>
       <c r="BE6" s="1">
         <v>12.937773</v>
       </c>
       <c r="BF6" s="1">
-        <v>1299.490000</v>
+        <v>1299.49</v>
       </c>
       <c r="BG6" s="1">
-        <v>-222.426000</v>
+        <v>-222.42599999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>46586.679809</v>
+        <v>46586.679809000001</v>
       </c>
       <c r="BJ6" s="1">
         <v>12.940744</v>
       </c>
       <c r="BK6" s="1">
-        <v>1369.380000</v>
+        <v>1369.38</v>
       </c>
       <c r="BL6" s="1">
-        <v>-360.900000</v>
+        <v>-360.9</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>46597.586339</v>
+        <v>46597.586339000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>12.943774</v>
+        <v>12.943773999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1484.500000</v>
+        <v>1484.5</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-586.773000</v>
+        <v>-586.77300000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>46608.209685</v>
+        <v>46608.209685000002</v>
       </c>
       <c r="BT6" s="1">
-        <v>12.946725</v>
+        <v>12.946725000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1617.210000</v>
+        <v>1617.21</v>
       </c>
       <c r="BV6" s="1">
-        <v>-842.510000</v>
+        <v>-842.51</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>46618.846360</v>
+        <v>46618.846360000003</v>
       </c>
       <c r="BY6" s="1">
-        <v>12.949680</v>
+        <v>12.949680000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1771.410000</v>
+        <v>1771.41</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1120.180000</v>
+        <v>-1120.18</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>46630.185401</v>
+        <v>46630.185401000002</v>
       </c>
       <c r="CD6" s="1">
-        <v>12.952829</v>
+        <v>12.952828999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>2193.660000</v>
+        <v>2193.66</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1795.870000</v>
+        <v>-1795.87</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>46459.689625</v>
+        <v>46459.689624999999</v>
       </c>
       <c r="B7" s="1">
         <v>12.905469</v>
       </c>
       <c r="C7" s="1">
-        <v>1148.050000</v>
+        <v>1148.05</v>
       </c>
       <c r="D7" s="1">
-        <v>-233.439000</v>
+        <v>-233.43899999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>46470.371932</v>
+        <v>46470.371932000002</v>
       </c>
       <c r="G7" s="1">
-        <v>12.908437</v>
+        <v>12.908436999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1166.880000</v>
+        <v>1166.8800000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-198.640000</v>
+        <v>-198.64</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>46480.878223</v>
@@ -1796,148 +2212,148 @@
         <v>12.911355</v>
       </c>
       <c r="M7" s="1">
-        <v>1193.780000</v>
+        <v>1193.78</v>
       </c>
       <c r="N7" s="1">
-        <v>-142.805000</v>
+        <v>-142.80500000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>46491.399823</v>
       </c>
       <c r="Q7" s="1">
-        <v>12.914278</v>
+        <v>12.914277999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1202.520000</v>
+        <v>1202.52</v>
       </c>
       <c r="S7" s="1">
-        <v>-123.599000</v>
+        <v>-123.599</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>46501.867891</v>
+        <v>46501.867891000002</v>
       </c>
       <c r="V7" s="1">
-        <v>12.917186</v>
+        <v>12.917185999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1210.960000</v>
+        <v>1210.96</v>
       </c>
       <c r="X7" s="1">
-        <v>-105.139000</v>
+        <v>-105.139</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>46512.309668</v>
+        <v>46512.309668000002</v>
       </c>
       <c r="AA7" s="1">
         <v>12.920086</v>
       </c>
       <c r="AB7" s="1">
-        <v>1219.570000</v>
+        <v>1219.57</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.570900</v>
+        <v>-89.570899999999995</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>46523.190903</v>
+        <v>46523.190903000002</v>
       </c>
       <c r="AF7" s="1">
         <v>12.923109</v>
       </c>
       <c r="AG7" s="1">
-        <v>1224.790000</v>
+        <v>1224.79</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.696600</v>
+        <v>-85.696600000000004</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>46533.733399</v>
+        <v>46533.733398999997</v>
       </c>
       <c r="AK7" s="1">
-        <v>12.926037</v>
+        <v>12.926037000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1232.370000</v>
+        <v>1232.3699999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.610200</v>
+        <v>-89.610200000000006</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>46544.420665</v>
+        <v>46544.420664999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>12.929006</v>
+        <v>12.929005999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1240.530000</v>
+        <v>1240.53</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.906000</v>
+        <v>-101.90600000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>46555.328716</v>
+        <v>46555.328716000004</v>
       </c>
       <c r="AU7" s="1">
         <v>12.932036</v>
       </c>
       <c r="AV7" s="1">
-        <v>1250.650000</v>
+        <v>1250.6500000000001</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.571000</v>
+        <v>-121.571</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>46565.727345</v>
+        <v>46565.727344999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>12.934924</v>
+        <v>12.934924000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1259.170000</v>
+        <v>1259.17</v>
       </c>
       <c r="BB7" s="1">
-        <v>-139.346000</v>
+        <v>-139.346</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>46576.339743</v>
+        <v>46576.339742999997</v>
       </c>
       <c r="BE7" s="1">
         <v>12.937872</v>
       </c>
       <c r="BF7" s="1">
-        <v>1299.490000</v>
+        <v>1299.49</v>
       </c>
       <c r="BG7" s="1">
-        <v>-222.436000</v>
+        <v>-222.43600000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>46587.080081</v>
@@ -1946,150 +2362,150 @@
         <v>12.940856</v>
       </c>
       <c r="BK7" s="1">
-        <v>1369.440000</v>
+        <v>1369.44</v>
       </c>
       <c r="BL7" s="1">
-        <v>-360.887000</v>
+        <v>-360.887</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>46598.012404</v>
+        <v>46598.012404000001</v>
       </c>
       <c r="BO7" s="1">
         <v>12.943892</v>
       </c>
       <c r="BP7" s="1">
-        <v>1484.520000</v>
+        <v>1484.52</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-586.757000</v>
+        <v>-586.75699999999995</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>46608.634230</v>
+        <v>46608.634230000003</v>
       </c>
       <c r="BT7" s="1">
-        <v>12.946843</v>
+        <v>12.946842999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1617.180000</v>
+        <v>1617.18</v>
       </c>
       <c r="BV7" s="1">
-        <v>-842.464000</v>
+        <v>-842.46400000000006</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>46619.259062</v>
+        <v>46619.259061999997</v>
       </c>
       <c r="BY7" s="1">
-        <v>12.949794</v>
+        <v>12.949794000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1771.310000</v>
+        <v>1771.31</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1120.020000</v>
+        <v>-1120.02</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>46630.726041</v>
+        <v>46630.726041000002</v>
       </c>
       <c r="CD7" s="1">
-        <v>12.952979</v>
+        <v>12.952978999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>2195.950000</v>
+        <v>2195.9499999999998</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1794.890000</v>
+        <v>-1794.89</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>46460.341905</v>
+        <v>46460.341905000001</v>
       </c>
       <c r="B8" s="1">
-        <v>12.905651</v>
+        <v>12.905651000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1148.020000</v>
+        <v>1148.02</v>
       </c>
       <c r="D8" s="1">
-        <v>-233.252000</v>
+        <v>-233.25200000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>46470.759306</v>
       </c>
       <c r="G8" s="1">
-        <v>12.908544</v>
+        <v>12.908543999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1166.370000</v>
+        <v>1166.3699999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-198.109000</v>
+        <v>-198.10900000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>46481.223938</v>
+        <v>46481.223938000003</v>
       </c>
       <c r="L8" s="1">
         <v>12.911451</v>
       </c>
       <c r="M8" s="1">
-        <v>1194.020000</v>
+        <v>1194.02</v>
       </c>
       <c r="N8" s="1">
-        <v>-142.513000</v>
+        <v>-142.51300000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>46491.753011</v>
+        <v>46491.753011000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>12.914376</v>
+        <v>12.914376000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1202.500000</v>
+        <v>1202.5</v>
       </c>
       <c r="S8" s="1">
-        <v>-123.634000</v>
+        <v>-123.634</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>46502.211617</v>
+        <v>46502.211617000001</v>
       </c>
       <c r="V8" s="1">
-        <v>12.917281</v>
+        <v>12.917280999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1210.890000</v>
+        <v>1210.8900000000001</v>
       </c>
       <c r="X8" s="1">
-        <v>-105.040000</v>
+        <v>-105.04</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>46512.658357</v>
@@ -2098,225 +2514,225 @@
         <v>12.920183</v>
       </c>
       <c r="AB8" s="1">
-        <v>1219.640000</v>
+        <v>1219.6400000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.578400</v>
+        <v>-89.578400000000002</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>46523.606549</v>
+        <v>46523.606548999996</v>
       </c>
       <c r="AF8" s="1">
-        <v>12.923224</v>
+        <v>12.923223999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1224.820000</v>
+        <v>1224.82</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.721400</v>
+        <v>-85.721400000000003</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>46534.008183</v>
+        <v>46534.008182999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>12.926113</v>
+        <v>12.926113000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1232.380000</v>
+        <v>1232.3800000000001</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.610100</v>
+        <v>-89.610100000000003</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>46544.704873</v>
+        <v>46544.704873000002</v>
       </c>
       <c r="AP8" s="1">
-        <v>12.929085</v>
+        <v>12.929085000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1240.520000</v>
+        <v>1240.52</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.903000</v>
+        <v>-101.90300000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>46555.694267</v>
+        <v>46555.694266999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>12.932137</v>
+        <v>12.932137000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1250.620000</v>
+        <v>1250.6199999999999</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.591000</v>
+        <v>-121.59099999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>46566.087437</v>
+        <v>46566.087437000002</v>
       </c>
       <c r="AZ8" s="1">
         <v>12.935024</v>
       </c>
       <c r="BA8" s="1">
-        <v>1259.140000</v>
+        <v>1259.1400000000001</v>
       </c>
       <c r="BB8" s="1">
-        <v>-139.330000</v>
+        <v>-139.33000000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>46576.701324</v>
+        <v>46576.701324000001</v>
       </c>
       <c r="BE8" s="1">
         <v>12.937973</v>
       </c>
       <c r="BF8" s="1">
-        <v>1299.490000</v>
+        <v>1299.49</v>
       </c>
       <c r="BG8" s="1">
-        <v>-222.412000</v>
+        <v>-222.41200000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>46587.829536</v>
+        <v>46587.829535999997</v>
       </c>
       <c r="BJ8" s="1">
-        <v>12.941064</v>
+        <v>12.941064000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1369.460000</v>
+        <v>1369.46</v>
       </c>
       <c r="BL8" s="1">
-        <v>-360.936000</v>
+        <v>-360.93599999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>46598.417635</v>
+        <v>46598.417634999998</v>
       </c>
       <c r="BO8" s="1">
-        <v>12.944005</v>
+        <v>12.944005000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1484.490000</v>
+        <v>1484.49</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-586.804000</v>
+        <v>-586.80399999999997</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>46609.038965</v>
       </c>
       <c r="BT8" s="1">
-        <v>12.946955</v>
+        <v>12.946955000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1617.190000</v>
+        <v>1617.19</v>
       </c>
       <c r="BV8" s="1">
-        <v>-842.455000</v>
+        <v>-842.45500000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>46619.716869</v>
+        <v>46619.716869000003</v>
       </c>
       <c r="BY8" s="1">
         <v>12.949921</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1771.280000</v>
+        <v>1771.28</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1120.030000</v>
+        <v>-1120.03</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>46631.563784</v>
+        <v>46631.563783999998</v>
       </c>
       <c r="CD8" s="1">
-        <v>12.953212</v>
+        <v>12.953212000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>2194.040000</v>
+        <v>2194.04</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1795.670000</v>
+        <v>-1795.67</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>46460.712381</v>
+        <v>46460.712380999998</v>
       </c>
       <c r="B9" s="1">
-        <v>12.905753</v>
+        <v>12.905753000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1147.980000</v>
+        <v>1147.98</v>
       </c>
       <c r="D9" s="1">
-        <v>-233.269000</v>
+        <v>-233.26900000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>46471.106506</v>
+        <v>46471.106505999996</v>
       </c>
       <c r="G9" s="1">
-        <v>12.908641</v>
+        <v>12.908640999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1166.350000</v>
+        <v>1166.3499999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-199.369000</v>
+        <v>-199.369</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>46481.570604</v>
       </c>
       <c r="L9" s="1">
-        <v>12.911547</v>
+        <v>12.911547000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1193.980000</v>
+        <v>1193.98</v>
       </c>
       <c r="N9" s="1">
-        <v>-142.784000</v>
+        <v>-142.78399999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>46492.100671</v>
@@ -2325,43 +2741,43 @@
         <v>12.914472</v>
       </c>
       <c r="R9" s="1">
-        <v>1202.450000</v>
+        <v>1202.45</v>
       </c>
       <c r="S9" s="1">
-        <v>-123.611000</v>
+        <v>-123.611</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>46502.628785</v>
+        <v>46502.628785000001</v>
       </c>
       <c r="V9" s="1">
-        <v>12.917397</v>
+        <v>12.917396999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1210.980000</v>
+        <v>1210.98</v>
       </c>
       <c r="X9" s="1">
-        <v>-104.990000</v>
+        <v>-104.99</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>46513.351267</v>
+        <v>46513.351266999998</v>
       </c>
       <c r="AA9" s="1">
         <v>12.920375</v>
       </c>
       <c r="AB9" s="1">
-        <v>1219.590000</v>
+        <v>1219.5899999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.489700</v>
+        <v>-89.489699999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>46523.883812</v>
@@ -2370,28 +2786,28 @@
         <v>12.923301</v>
       </c>
       <c r="AG9" s="1">
-        <v>1224.860000</v>
+        <v>1224.8599999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.664300</v>
+        <v>-85.664299999999997</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>46534.358824</v>
+        <v>46534.358824000003</v>
       </c>
       <c r="AK9" s="1">
         <v>12.926211</v>
       </c>
       <c r="AL9" s="1">
-        <v>1232.390000</v>
+        <v>1232.3900000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.594100</v>
+        <v>-89.594099999999997</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>46545.067657</v>
@@ -2400,58 +2816,58 @@
         <v>12.929185</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1240.520000</v>
+        <v>1240.52</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.907000</v>
+        <v>-101.907</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>46556.059786</v>
+        <v>46556.059785999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>12.932239</v>
+        <v>12.932238999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1250.650000</v>
+        <v>1250.6500000000001</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.609000</v>
+        <v>-121.60899999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>46566.805115</v>
+        <v>46566.805115000003</v>
       </c>
       <c r="AZ9" s="1">
         <v>12.935224</v>
       </c>
       <c r="BA9" s="1">
-        <v>1259.160000</v>
+        <v>1259.1600000000001</v>
       </c>
       <c r="BB9" s="1">
-        <v>-139.336000</v>
+        <v>-139.33600000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>46577.414542</v>
+        <v>46577.414541999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>12.938171</v>
+        <v>12.938171000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1299.430000</v>
+        <v>1299.43</v>
       </c>
       <c r="BG9" s="1">
-        <v>-222.449000</v>
+        <v>-222.44900000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>46588.233279</v>
@@ -2460,784 +2876,784 @@
         <v>12.941176</v>
       </c>
       <c r="BK9" s="1">
-        <v>1369.420000</v>
+        <v>1369.42</v>
       </c>
       <c r="BL9" s="1">
-        <v>-360.915000</v>
+        <v>-360.91500000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>46598.825842</v>
+        <v>46598.825841999998</v>
       </c>
       <c r="BO9" s="1">
         <v>12.944118</v>
       </c>
       <c r="BP9" s="1">
-        <v>1484.510000</v>
+        <v>1484.51</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-586.809000</v>
+        <v>-586.80899999999997</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>46609.454646</v>
+        <v>46609.454645999998</v>
       </c>
       <c r="BT9" s="1">
-        <v>12.947071</v>
+        <v>12.947070999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1617.190000</v>
+        <v>1617.19</v>
       </c>
       <c r="BV9" s="1">
-        <v>-842.399000</v>
+        <v>-842.399</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>46620.475749</v>
+        <v>46620.475748999997</v>
       </c>
       <c r="BY9" s="1">
         <v>12.950132</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1771.280000</v>
+        <v>1771.28</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1120.160000</v>
+        <v>-1120.1600000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>46631.803391</v>
+        <v>46631.803391000001</v>
       </c>
       <c r="CD9" s="1">
         <v>12.953279</v>
       </c>
       <c r="CE9" s="1">
-        <v>2194.150000</v>
+        <v>2194.15</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1795.870000</v>
+        <v>-1795.87</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>46461.053591</v>
+        <v>46461.053591000004</v>
       </c>
       <c r="B10" s="1">
-        <v>12.905848</v>
+        <v>12.905848000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1148.200000</v>
+        <v>1148.2</v>
       </c>
       <c r="D10" s="1">
-        <v>-233.228000</v>
+        <v>-233.22800000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>46471.449738</v>
+        <v>46471.449738000003</v>
       </c>
       <c r="G10" s="1">
-        <v>12.908736</v>
+        <v>12.908735999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1166.610000</v>
+        <v>1166.6099999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-198.565000</v>
+        <v>-198.565</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>46481.990220</v>
+        <v>46481.99022</v>
       </c>
       <c r="L10" s="1">
         <v>12.911664</v>
       </c>
       <c r="M10" s="1">
-        <v>1193.720000</v>
+        <v>1193.72</v>
       </c>
       <c r="N10" s="1">
-        <v>-142.907000</v>
+        <v>-142.90700000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>46492.516318</v>
+        <v>46492.516318000002</v>
       </c>
       <c r="Q10" s="1">
         <v>12.914588</v>
       </c>
       <c r="R10" s="1">
-        <v>1202.470000</v>
+        <v>1202.47</v>
       </c>
       <c r="S10" s="1">
-        <v>-123.656000</v>
+        <v>-123.65600000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>46502.903077</v>
+        <v>46502.903077000003</v>
       </c>
       <c r="V10" s="1">
-        <v>12.917473</v>
+        <v>12.917472999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1210.940000</v>
+        <v>1210.94</v>
       </c>
       <c r="X10" s="1">
-        <v>-105.212000</v>
+        <v>-105.212</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>46513.702931</v>
       </c>
       <c r="AA10" s="1">
-        <v>12.920473</v>
+        <v>12.920472999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1219.610000</v>
+        <v>1219.6099999999999</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.609300</v>
+        <v>-89.609300000000005</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>46524.226053</v>
+        <v>46524.226052999999</v>
       </c>
       <c r="AF10" s="1">
         <v>12.923396</v>
       </c>
       <c r="AG10" s="1">
-        <v>1224.860000</v>
+        <v>1224.8599999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.707700</v>
+        <v>-85.707700000000003</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>46534.706518</v>
+        <v>46534.706517999999</v>
       </c>
       <c r="AK10" s="1">
         <v>12.926307</v>
       </c>
       <c r="AL10" s="1">
-        <v>1232.330000</v>
+        <v>1232.33</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.588500</v>
+        <v>-89.588499999999996</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>46545.426553</v>
+        <v>46545.426552999998</v>
       </c>
       <c r="AP10" s="1">
         <v>12.929285</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1240.510000</v>
+        <v>1240.51</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.919000</v>
+        <v>-101.919</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>46556.786922</v>
+        <v>46556.786921999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>12.932441</v>
+        <v>12.932441000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1250.650000</v>
+        <v>1250.6500000000001</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.587000</v>
+        <v>-121.587</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>46567.164747</v>
+        <v>46567.164747000003</v>
       </c>
       <c r="AZ10" s="1">
         <v>12.935324</v>
       </c>
       <c r="BA10" s="1">
-        <v>1259.160000</v>
+        <v>1259.1600000000001</v>
       </c>
       <c r="BB10" s="1">
-        <v>-139.332000</v>
+        <v>-139.33199999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>46577.813821</v>
+        <v>46577.813821000003</v>
       </c>
       <c r="BE10" s="1">
-        <v>12.938282</v>
+        <v>12.938281999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1299.460000</v>
+        <v>1299.46</v>
       </c>
       <c r="BG10" s="1">
-        <v>-222.437000</v>
+        <v>-222.43700000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>46588.607265</v>
+        <v>46588.607264999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>12.941280</v>
+        <v>12.941280000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1369.420000</v>
+        <v>1369.42</v>
       </c>
       <c r="BL10" s="1">
-        <v>-360.952000</v>
+        <v>-360.952</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>46599.535652</v>
+        <v>46599.535651999999</v>
       </c>
       <c r="BO10" s="1">
         <v>12.944315</v>
       </c>
       <c r="BP10" s="1">
-        <v>1484.480000</v>
+        <v>1484.48</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-586.810000</v>
+        <v>-586.80999999999995</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>46610.175794</v>
+        <v>46610.175794000002</v>
       </c>
       <c r="BT10" s="1">
-        <v>12.947271</v>
+        <v>12.947271000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1617.120000</v>
+        <v>1617.12</v>
       </c>
       <c r="BV10" s="1">
-        <v>-842.378000</v>
+        <v>-842.37800000000004</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>46620.615121</v>
+        <v>46620.615121000003</v>
       </c>
       <c r="BY10" s="1">
-        <v>12.950171</v>
+        <v>12.950170999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1771.400000</v>
+        <v>1771.4</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1120.020000</v>
+        <v>-1120.02</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>46632.321669</v>
+        <v>46632.321668999997</v>
       </c>
       <c r="CD10" s="1">
-        <v>12.953423</v>
+        <v>12.953423000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>2195.970000</v>
+        <v>2195.9699999999998</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1794.770000</v>
+        <v>-1794.77</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>46461.397815</v>
+        <v>46461.397814999997</v>
       </c>
       <c r="B11" s="1">
         <v>12.905944</v>
       </c>
       <c r="C11" s="1">
-        <v>1148.140000</v>
+        <v>1148.1400000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-233.339000</v>
+        <v>-233.339</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>46471.865385</v>
+        <v>46471.865384999997</v>
       </c>
       <c r="G11" s="1">
         <v>12.908851</v>
       </c>
       <c r="H11" s="1">
-        <v>1166.980000</v>
+        <v>1166.98</v>
       </c>
       <c r="I11" s="1">
-        <v>-198.719000</v>
+        <v>-198.71899999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>46482.265499</v>
+        <v>46482.265499000001</v>
       </c>
       <c r="L11" s="1">
-        <v>12.911740</v>
+        <v>12.91174</v>
       </c>
       <c r="M11" s="1">
-        <v>1194.110000</v>
+        <v>1194.1099999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-143.058000</v>
+        <v>-143.05799999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>46492.804493</v>
+        <v>46492.804493000003</v>
       </c>
       <c r="Q11" s="1">
-        <v>12.914668</v>
+        <v>12.914668000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1202.530000</v>
+        <v>1202.53</v>
       </c>
       <c r="S11" s="1">
-        <v>-123.526000</v>
+        <v>-123.526</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>46503.250736</v>
+        <v>46503.250736000002</v>
       </c>
       <c r="V11" s="1">
-        <v>12.917570</v>
+        <v>12.91757</v>
       </c>
       <c r="W11" s="1">
-        <v>1210.930000</v>
+        <v>1210.93</v>
       </c>
       <c r="X11" s="1">
-        <v>-104.980000</v>
+        <v>-104.98</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>46514.050625</v>
+        <v>46514.050625000003</v>
       </c>
       <c r="AA11" s="1">
-        <v>12.920570</v>
+        <v>12.92057</v>
       </c>
       <c r="AB11" s="1">
-        <v>1219.660000</v>
+        <v>1219.6600000000001</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.626200</v>
+        <v>-89.626199999999997</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>46524.571301</v>
+        <v>46524.571301000004</v>
       </c>
       <c r="AF11" s="1">
         <v>12.923492</v>
       </c>
       <c r="AG11" s="1">
-        <v>1224.870000</v>
+        <v>1224.8699999999999</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.661300</v>
+        <v>-85.661299999999997</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>46535.402902</v>
+        <v>46535.402902000002</v>
       </c>
       <c r="AK11" s="1">
         <v>12.926501</v>
       </c>
       <c r="AL11" s="1">
-        <v>1232.370000</v>
+        <v>1232.3699999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.585900</v>
+        <v>-89.585899999999995</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>46546.146248</v>
+        <v>46546.146247999997</v>
       </c>
       <c r="AP11" s="1">
         <v>12.929485</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1240.520000</v>
+        <v>1240.52</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.915000</v>
+        <v>-101.91500000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>46557.180248</v>
+        <v>46557.180247999997</v>
       </c>
       <c r="AU11" s="1">
-        <v>12.932550</v>
+        <v>12.932550000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1250.650000</v>
+        <v>1250.6500000000001</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.600000</v>
+        <v>-121.6</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>46567.521371</v>
+        <v>46567.521371000003</v>
       </c>
       <c r="AZ11" s="1">
         <v>12.935423</v>
       </c>
       <c r="BA11" s="1">
-        <v>1259.190000</v>
+        <v>1259.19</v>
       </c>
       <c r="BB11" s="1">
-        <v>-139.335000</v>
+        <v>-139.33500000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>46578.178381</v>
+        <v>46578.178380999998</v>
       </c>
       <c r="BE11" s="1">
         <v>12.938383</v>
       </c>
       <c r="BF11" s="1">
-        <v>1299.460000</v>
+        <v>1299.46</v>
       </c>
       <c r="BG11" s="1">
-        <v>-222.411000</v>
+        <v>-222.411</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>46589.293231</v>
+        <v>46589.293231000003</v>
       </c>
       <c r="BJ11" s="1">
-        <v>12.941470</v>
+        <v>12.941470000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1369.400000</v>
+        <v>1369.4</v>
       </c>
       <c r="BL11" s="1">
-        <v>-360.906000</v>
+        <v>-360.90600000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>46599.659153</v>
+        <v>46599.659153000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>12.944350</v>
+        <v>12.94435</v>
       </c>
       <c r="BP11" s="1">
-        <v>1484.480000</v>
+        <v>1484.48</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-586.762000</v>
+        <v>-586.76199999999994</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>46610.285906</v>
+        <v>46610.285905999997</v>
       </c>
       <c r="BT11" s="1">
-        <v>12.947302</v>
+        <v>12.947302000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1617.060000</v>
+        <v>1617.06</v>
       </c>
       <c r="BV11" s="1">
-        <v>-842.405000</v>
+        <v>-842.40499999999997</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>46621.036228</v>
+        <v>46621.036227999997</v>
       </c>
       <c r="BY11" s="1">
         <v>12.950288</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1771.290000</v>
+        <v>1771.29</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1120.070000</v>
+        <v>-1120.07</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>46632.837014</v>
+        <v>46632.837013999997</v>
       </c>
       <c r="CD11" s="1">
         <v>12.953566</v>
       </c>
       <c r="CE11" s="1">
-        <v>2196.160000</v>
+        <v>2196.16</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1795.900000</v>
+        <v>-1795.9</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>46461.820902</v>
+        <v>46461.820901999999</v>
       </c>
       <c r="B12" s="1">
-        <v>12.906061</v>
+        <v>12.906060999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1148.030000</v>
+        <v>1148.03</v>
       </c>
       <c r="D12" s="1">
-        <v>-233.455000</v>
+        <v>-233.45500000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>46472.141689</v>
+        <v>46472.141688999996</v>
       </c>
       <c r="G12" s="1">
         <v>12.908928</v>
       </c>
       <c r="H12" s="1">
-        <v>1166.920000</v>
+        <v>1166.92</v>
       </c>
       <c r="I12" s="1">
-        <v>-199.406000</v>
+        <v>-199.40600000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>46482.612700</v>
+        <v>46482.612699999998</v>
       </c>
       <c r="L12" s="1">
         <v>12.911837</v>
       </c>
       <c r="M12" s="1">
-        <v>1193.810000</v>
+        <v>1193.81</v>
       </c>
       <c r="N12" s="1">
-        <v>-142.742000</v>
+        <v>-142.74199999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>46493.154173</v>
+        <v>46493.154173000003</v>
       </c>
       <c r="Q12" s="1">
-        <v>12.914765</v>
+        <v>12.914764999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1202.540000</v>
+        <v>1202.54</v>
       </c>
       <c r="S12" s="1">
-        <v>-123.646000</v>
+        <v>-123.646</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>46503.591983</v>
+        <v>46503.591982999998</v>
       </c>
       <c r="V12" s="1">
         <v>12.917664</v>
       </c>
       <c r="W12" s="1">
-        <v>1210.890000</v>
+        <v>1210.8900000000001</v>
       </c>
       <c r="X12" s="1">
-        <v>-105.068000</v>
+        <v>-105.068</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>46514.749523</v>
+        <v>46514.749522999999</v>
       </c>
       <c r="AA12" s="1">
         <v>12.920764</v>
       </c>
       <c r="AB12" s="1">
-        <v>1219.630000</v>
+        <v>1219.6300000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.522800</v>
+        <v>-89.522800000000004</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>46525.257730</v>
+        <v>46525.257729999998</v>
       </c>
       <c r="AF12" s="1">
         <v>12.923683</v>
       </c>
       <c r="AG12" s="1">
-        <v>1224.840000</v>
+        <v>1224.8399999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.747100</v>
+        <v>-85.747100000000003</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>46535.751882</v>
+        <v>46535.751881999997</v>
       </c>
       <c r="AK12" s="1">
         <v>12.926598</v>
       </c>
       <c r="AL12" s="1">
-        <v>1232.350000</v>
+        <v>1232.3499999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.613300</v>
+        <v>-89.613299999999995</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>46546.506840</v>
+        <v>46546.506840000002</v>
       </c>
       <c r="AP12" s="1">
-        <v>12.929585</v>
+        <v>12.929584999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1240.520000</v>
+        <v>1240.52</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.916000</v>
+        <v>-101.916</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>46557.546792</v>
+        <v>46557.546792000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>12.932652</v>
+        <v>12.932651999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1250.650000</v>
+        <v>1250.6500000000001</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.588000</v>
+        <v>-121.58799999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>46568.192464</v>
       </c>
       <c r="AZ12" s="1">
-        <v>12.935609</v>
+        <v>12.935608999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1259.140000</v>
+        <v>1259.1400000000001</v>
       </c>
       <c r="BB12" s="1">
-        <v>-139.361000</v>
+        <v>-139.36099999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>46578.847990</v>
+        <v>46578.847990000002</v>
       </c>
       <c r="BE12" s="1">
-        <v>12.938569</v>
+        <v>12.938568999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1299.480000</v>
+        <v>1299.48</v>
       </c>
       <c r="BG12" s="1">
-        <v>-222.438000</v>
+        <v>-222.43799999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>46589.403838</v>
+        <v>46589.403837999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>12.941501</v>
+        <v>12.941501000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1369.470000</v>
+        <v>1369.47</v>
       </c>
       <c r="BL12" s="1">
-        <v>-360.890000</v>
+        <v>-360.89</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>46600.069808</v>
@@ -3246,437 +3662,437 @@
         <v>12.944464</v>
       </c>
       <c r="BP12" s="1">
-        <v>1484.490000</v>
+        <v>1484.49</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-586.776000</v>
+        <v>-586.77599999999995</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>46610.721891</v>
+        <v>46610.721891000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>12.947423</v>
+        <v>12.947423000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1617.090000</v>
+        <v>1617.09</v>
       </c>
       <c r="BV12" s="1">
-        <v>-842.299000</v>
+        <v>-842.29899999999998</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>46621.462259</v>
       </c>
       <c r="BY12" s="1">
-        <v>12.950406</v>
+        <v>12.950405999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1771.410000</v>
+        <v>1771.41</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1120.120000</v>
+        <v>-1120.1199999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>46633.393081</v>
+        <v>46633.393081000002</v>
       </c>
       <c r="CD12" s="1">
-        <v>12.953720</v>
+        <v>12.953720000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>2194.110000</v>
+        <v>2194.11</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1795.840000</v>
+        <v>-1795.84</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>46462.098663</v>
+        <v>46462.098662999997</v>
       </c>
       <c r="B13" s="1">
         <v>12.906139</v>
       </c>
       <c r="C13" s="1">
-        <v>1148.150000</v>
+        <v>1148.1500000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-233.469000</v>
+        <v>-233.46899999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>46472.486872</v>
+        <v>46472.486872000001</v>
       </c>
       <c r="G13" s="1">
         <v>12.909024</v>
       </c>
       <c r="H13" s="1">
-        <v>1166.320000</v>
+        <v>1166.32</v>
       </c>
       <c r="I13" s="1">
-        <v>-198.789000</v>
+        <v>-198.78899999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>46482.957455</v>
+        <v>46482.957455000003</v>
       </c>
       <c r="L13" s="1">
-        <v>12.911933</v>
+        <v>12.911932999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1193.950000</v>
+        <v>1193.95</v>
       </c>
       <c r="N13" s="1">
-        <v>-142.665000</v>
+        <v>-142.66499999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>46493.504350</v>
+        <v>46493.504350000003</v>
       </c>
       <c r="Q13" s="1">
-        <v>12.914862</v>
+        <v>12.914861999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1202.470000</v>
+        <v>1202.47</v>
       </c>
       <c r="S13" s="1">
-        <v>-123.667000</v>
+        <v>-123.667</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>46504.280431</v>
+        <v>46504.280430999999</v>
       </c>
       <c r="V13" s="1">
         <v>12.917856</v>
       </c>
       <c r="W13" s="1">
-        <v>1210.880000</v>
+        <v>1210.8800000000001</v>
       </c>
       <c r="X13" s="1">
-        <v>-104.926000</v>
+        <v>-104.926</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>46515.095696</v>
+        <v>46515.095695999997</v>
       </c>
       <c r="AA13" s="1">
-        <v>12.920860</v>
+        <v>12.920859999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1219.620000</v>
+        <v>1219.6199999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.510400</v>
+        <v>-89.510400000000004</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>46525.602750</v>
+        <v>46525.602749999998</v>
       </c>
       <c r="AF13" s="1">
         <v>12.923779</v>
       </c>
       <c r="AG13" s="1">
-        <v>1224.810000</v>
+        <v>1224.81</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.761100</v>
+        <v>-85.761099999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>46536.099286</v>
+        <v>46536.099285999997</v>
       </c>
       <c r="AK13" s="1">
-        <v>12.926694</v>
+        <v>12.926693999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1232.390000</v>
+        <v>1232.3900000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.603300</v>
+        <v>-89.603300000000004</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>46547.169032</v>
+        <v>46547.169031999998</v>
       </c>
       <c r="AP13" s="1">
         <v>12.929769</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1240.540000</v>
+        <v>1240.54</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.920000</v>
+        <v>-101.92</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>46558.224327</v>
+        <v>46558.224327000004</v>
       </c>
       <c r="AU13" s="1">
-        <v>12.932840</v>
+        <v>12.932840000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1250.620000</v>
+        <v>1250.6199999999999</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.574000</v>
+        <v>-121.574</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>46568.626425</v>
+        <v>46568.626425000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>12.935730</v>
+        <v>12.93573</v>
       </c>
       <c r="BA13" s="1">
-        <v>1259.160000</v>
+        <v>1259.1600000000001</v>
       </c>
       <c r="BB13" s="1">
-        <v>-139.358000</v>
+        <v>-139.358</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>46579.257677</v>
+        <v>46579.257677000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>12.938683</v>
+        <v>12.938682999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1299.440000</v>
+        <v>1299.44</v>
       </c>
       <c r="BG13" s="1">
-        <v>-222.412000</v>
+        <v>-222.41200000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>46589.757981</v>
+        <v>46589.757981000002</v>
       </c>
       <c r="BJ13" s="1">
         <v>12.941599</v>
       </c>
       <c r="BK13" s="1">
-        <v>1369.450000</v>
+        <v>1369.45</v>
       </c>
       <c r="BL13" s="1">
-        <v>-360.903000</v>
+        <v>-360.90300000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>46600.467601</v>
+        <v>46600.467600999997</v>
       </c>
       <c r="BO13" s="1">
-        <v>12.944574</v>
+        <v>12.944573999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1484.540000</v>
+        <v>1484.54</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-586.812000</v>
+        <v>-586.81200000000001</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>46611.136545</v>
+        <v>46611.136545000001</v>
       </c>
       <c r="BT13" s="1">
         <v>12.947538</v>
       </c>
       <c r="BU13" s="1">
-        <v>1617.120000</v>
+        <v>1617.12</v>
       </c>
       <c r="BV13" s="1">
-        <v>-842.220000</v>
+        <v>-842.22</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>46621.879431</v>
+        <v>46621.879431000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>12.950522</v>
+        <v>12.950521999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1771.260000</v>
+        <v>1771.26</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1120.070000</v>
+        <v>-1120.07</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>46633.921795</v>
+        <v>46633.921795000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>12.953867</v>
+        <v>12.953867000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>2196.210000</v>
+        <v>2196.21</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1795.020000</v>
+        <v>-1795.02</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>46462.442885</v>
+        <v>46462.442884999997</v>
       </c>
       <c r="B14" s="1">
         <v>12.906234</v>
       </c>
       <c r="C14" s="1">
-        <v>1147.990000</v>
+        <v>1147.99</v>
       </c>
       <c r="D14" s="1">
-        <v>-233.443000</v>
+        <v>-233.44300000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>46472.831097</v>
+        <v>46472.831097000002</v>
       </c>
       <c r="G14" s="1">
-        <v>12.909120</v>
+        <v>12.90912</v>
       </c>
       <c r="H14" s="1">
-        <v>1166.650000</v>
+        <v>1166.6500000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-198.643000</v>
+        <v>-198.643</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>46483.648843</v>
+        <v>46483.648843000003</v>
       </c>
       <c r="L14" s="1">
         <v>12.912125</v>
       </c>
       <c r="M14" s="1">
-        <v>1194.160000</v>
+        <v>1194.1600000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-142.597000</v>
+        <v>-142.59700000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>46494.201750</v>
+        <v>46494.20175</v>
       </c>
       <c r="Q14" s="1">
         <v>12.915056</v>
       </c>
       <c r="R14" s="1">
-        <v>1202.500000</v>
+        <v>1202.5</v>
       </c>
       <c r="S14" s="1">
-        <v>-123.577000</v>
+        <v>-123.577</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>46504.622174</v>
+        <v>46504.622173999996</v>
       </c>
       <c r="V14" s="1">
         <v>12.917951</v>
       </c>
       <c r="W14" s="1">
-        <v>1210.920000</v>
+        <v>1210.92</v>
       </c>
       <c r="X14" s="1">
-        <v>-104.933000</v>
+        <v>-104.93300000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>46515.444400</v>
+        <v>46515.4444</v>
       </c>
       <c r="AA14" s="1">
         <v>12.920957</v>
       </c>
       <c r="AB14" s="1">
-        <v>1219.700000</v>
+        <v>1219.7</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.497500</v>
+        <v>-89.497500000000002</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>46525.946180</v>
+        <v>46525.946179999999</v>
       </c>
       <c r="AF14" s="1">
         <v>12.923874</v>
       </c>
       <c r="AG14" s="1">
-        <v>1224.810000</v>
+        <v>1224.81</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.765200</v>
+        <v>-85.765199999999993</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>46536.756492</v>
       </c>
       <c r="AK14" s="1">
-        <v>12.926877</v>
+        <v>12.926876999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1232.370000</v>
+        <v>1232.3699999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.605900</v>
+        <v>-89.605900000000005</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>46547.620853</v>
@@ -3685,180 +4101,180 @@
         <v>12.929895</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1240.530000</v>
+        <v>1240.53</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.887000</v>
+        <v>-101.887</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>46558.671222</v>
+        <v>46558.671221999997</v>
       </c>
       <c r="AU14" s="1">
         <v>12.932964</v>
       </c>
       <c r="AV14" s="1">
-        <v>1250.640000</v>
+        <v>1250.6400000000001</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.600000</v>
+        <v>-121.6</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>46568.985065</v>
+        <v>46568.985065000001</v>
       </c>
       <c r="AZ14" s="1">
         <v>12.935829</v>
       </c>
       <c r="BA14" s="1">
-        <v>1259.150000</v>
+        <v>1259.1500000000001</v>
       </c>
       <c r="BB14" s="1">
-        <v>-139.354000</v>
+        <v>-139.35400000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>46579.646571</v>
+        <v>46579.646570999997</v>
       </c>
       <c r="BE14" s="1">
         <v>12.938791</v>
       </c>
       <c r="BF14" s="1">
-        <v>1299.460000</v>
+        <v>1299.46</v>
       </c>
       <c r="BG14" s="1">
-        <v>-222.402000</v>
+        <v>-222.40199999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>46590.121549</v>
+        <v>46590.121549000003</v>
       </c>
       <c r="BJ14" s="1">
-        <v>12.941700</v>
+        <v>12.941700000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1369.440000</v>
+        <v>1369.44</v>
       </c>
       <c r="BL14" s="1">
-        <v>-360.946000</v>
+        <v>-360.94600000000003</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>46600.889694</v>
+        <v>46600.889693999998</v>
       </c>
       <c r="BO14" s="1">
         <v>12.944692</v>
       </c>
       <c r="BP14" s="1">
-        <v>1484.520000</v>
+        <v>1484.52</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-586.769000</v>
+        <v>-586.76900000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>46611.569554</v>
+        <v>46611.569554000002</v>
       </c>
       <c r="BT14" s="1">
-        <v>12.947658</v>
+        <v>12.947658000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1617.090000</v>
+        <v>1617.09</v>
       </c>
       <c r="BV14" s="1">
-        <v>-842.217000</v>
+        <v>-842.21699999999998</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>46622.327779</v>
+        <v>46622.327778999999</v>
       </c>
       <c r="BY14" s="1">
         <v>12.950647</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1771.440000</v>
+        <v>1771.44</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1120.160000</v>
+        <v>-1120.1600000000001</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>46634.441106</v>
+        <v>46634.441105999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>12.954011</v>
+        <v>12.954010999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>2195.690000</v>
+        <v>2195.69</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1795.830000</v>
+        <v>-1795.83</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>46462.782645</v>
+        <v>46462.782644999999</v>
       </c>
       <c r="B15" s="1">
-        <v>12.906329</v>
+        <v>12.906328999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1148.160000</v>
+        <v>1148.1600000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-233.647000</v>
+        <v>-233.64699999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>46473.519543</v>
+        <v>46473.519543000002</v>
       </c>
       <c r="G15" s="1">
-        <v>12.909311</v>
+        <v>12.909311000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1166.070000</v>
+        <v>1166.07</v>
       </c>
       <c r="I15" s="1">
-        <v>-198.709000</v>
+        <v>-198.709</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>46483.996570</v>
+        <v>46483.996570000003</v>
       </c>
       <c r="L15" s="1">
-        <v>12.912221</v>
+        <v>12.912221000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1193.920000</v>
+        <v>1193.92</v>
       </c>
       <c r="N15" s="1">
-        <v>-142.708000</v>
+        <v>-142.708</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>46494.549454</v>
@@ -3867,118 +4283,118 @@
         <v>12.915153</v>
       </c>
       <c r="R15" s="1">
-        <v>1202.510000</v>
+        <v>1202.51</v>
       </c>
       <c r="S15" s="1">
-        <v>-123.617000</v>
+        <v>-123.617</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>46504.967421</v>
+        <v>46504.967421000001</v>
       </c>
       <c r="V15" s="1">
         <v>12.918047</v>
       </c>
       <c r="W15" s="1">
-        <v>1211.010000</v>
+        <v>1211.01</v>
       </c>
       <c r="X15" s="1">
-        <v>-104.952000</v>
+        <v>-104.952</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>46516.115471</v>
+        <v>46516.115470999997</v>
       </c>
       <c r="AA15" s="1">
-        <v>12.921143</v>
+        <v>12.921143000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>1219.680000</v>
+        <v>1219.68</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.665600</v>
+        <v>-89.665599999999998</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>46526.608337</v>
+        <v>46526.608336999998</v>
       </c>
       <c r="AF15" s="1">
         <v>12.924058</v>
       </c>
       <c r="AG15" s="1">
-        <v>1224.850000</v>
+        <v>1224.8499999999999</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.727500</v>
+        <v>-85.727500000000006</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>46537.143858</v>
+        <v>46537.143858000003</v>
       </c>
       <c r="AK15" s="1">
-        <v>12.926984</v>
+        <v>12.926983999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1232.380000</v>
+        <v>1232.3800000000001</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.612300</v>
+        <v>-89.612300000000005</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>46547.979496</v>
       </c>
       <c r="AP15" s="1">
-        <v>12.929994</v>
+        <v>12.929994000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1240.530000</v>
+        <v>1240.53</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.912000</v>
+        <v>-101.91200000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>46559.038294</v>
+        <v>46559.038293999998</v>
       </c>
       <c r="AU15" s="1">
         <v>12.933066</v>
       </c>
       <c r="AV15" s="1">
-        <v>1250.630000</v>
+        <v>1250.6300000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.601000</v>
+        <v>-121.601</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>46569.345129</v>
+        <v>46569.345129000001</v>
       </c>
       <c r="AZ15" s="1">
         <v>12.935929</v>
       </c>
       <c r="BA15" s="1">
-        <v>1259.150000</v>
+        <v>1259.1500000000001</v>
       </c>
       <c r="BB15" s="1">
-        <v>-139.366000</v>
+        <v>-139.36600000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>46580.065658</v>
@@ -3987,300 +4403,300 @@
         <v>12.938907</v>
       </c>
       <c r="BF15" s="1">
-        <v>1299.460000</v>
+        <v>1299.46</v>
       </c>
       <c r="BG15" s="1">
-        <v>-222.417000</v>
+        <v>-222.417</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>46590.559549</v>
+        <v>46590.559548999998</v>
       </c>
       <c r="BJ15" s="1">
         <v>12.941822</v>
       </c>
       <c r="BK15" s="1">
-        <v>1369.390000</v>
+        <v>1369.39</v>
       </c>
       <c r="BL15" s="1">
-        <v>-360.902000</v>
+        <v>-360.90199999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>46601.284547</v>
+        <v>46601.284547000003</v>
       </c>
       <c r="BO15" s="1">
         <v>12.944801</v>
       </c>
       <c r="BP15" s="1">
-        <v>1484.470000</v>
+        <v>1484.47</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-586.793000</v>
+        <v>-586.79300000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>46611.968832</v>
+        <v>46611.968831999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>12.947769</v>
+        <v>12.947768999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1617.120000</v>
+        <v>1617.12</v>
       </c>
       <c r="BV15" s="1">
-        <v>-842.145000</v>
+        <v>-842.14499999999998</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>46622.747890</v>
+        <v>46622.747889999999</v>
       </c>
       <c r="BY15" s="1">
         <v>12.950763</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1771.330000</v>
+        <v>1771.33</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1120.020000</v>
+        <v>-1120.02</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>46634.990674</v>
+        <v>46634.990674000001</v>
       </c>
       <c r="CD15" s="1">
         <v>12.954164</v>
       </c>
       <c r="CE15" s="1">
-        <v>2194.050000</v>
+        <v>2194.0500000000002</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1795.790000</v>
+        <v>-1795.79</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>46463.460680</v>
+        <v>46463.460679999997</v>
       </c>
       <c r="B16" s="1">
-        <v>12.906517</v>
+        <v>12.906516999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1148.050000</v>
+        <v>1148.05</v>
       </c>
       <c r="D16" s="1">
-        <v>-233.269000</v>
+        <v>-233.26900000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>46473.863768</v>
+        <v>46473.863768000003</v>
       </c>
       <c r="G16" s="1">
         <v>12.909407</v>
       </c>
       <c r="H16" s="1">
-        <v>1166.500000</v>
+        <v>1166.5</v>
       </c>
       <c r="I16" s="1">
-        <v>-198.533000</v>
+        <v>-198.53299999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>46484.343776</v>
+        <v>46484.343776000002</v>
       </c>
       <c r="L16" s="1">
-        <v>12.912318</v>
+        <v>12.912318000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>1193.890000</v>
+        <v>1193.8900000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-142.757000</v>
+        <v>-142.75700000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>46494.897643</v>
+        <v>46494.897642999997</v>
       </c>
       <c r="Q16" s="1">
-        <v>12.915249</v>
+        <v>12.915248999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1202.420000</v>
+        <v>1202.42</v>
       </c>
       <c r="S16" s="1">
-        <v>-123.535000</v>
+        <v>-123.535</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>46505.618178</v>
+        <v>46505.618177999997</v>
       </c>
       <c r="V16" s="1">
         <v>12.918227</v>
       </c>
       <c r="W16" s="1">
-        <v>1210.980000</v>
+        <v>1210.98</v>
       </c>
       <c r="X16" s="1">
-        <v>-105.014000</v>
+        <v>-105.014</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>46516.492464</v>
+        <v>46516.492464000003</v>
       </c>
       <c r="AA16" s="1">
         <v>12.921248</v>
       </c>
       <c r="AB16" s="1">
-        <v>1219.690000</v>
+        <v>1219.69</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.617900</v>
+        <v>-89.617900000000006</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>46526.975873</v>
+        <v>46526.975873000003</v>
       </c>
       <c r="AF16" s="1">
-        <v>12.924160</v>
+        <v>12.924160000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1224.850000</v>
+        <v>1224.8499999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.747900</v>
+        <v>-85.747900000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>46537.492052</v>
+        <v>46537.492052000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>12.927081</v>
+        <v>12.927080999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1232.360000</v>
+        <v>1232.3599999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.631400</v>
+        <v>-89.631399999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>46548.341542</v>
+        <v>46548.341542000002</v>
       </c>
       <c r="AP16" s="1">
         <v>12.930095</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1240.540000</v>
+        <v>1240.54</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.916000</v>
+        <v>-101.916</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>46559.402326</v>
+        <v>46559.402326000003</v>
       </c>
       <c r="AU16" s="1">
-        <v>12.933167</v>
+        <v>12.933166999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1250.660000</v>
+        <v>1250.6600000000001</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.609000</v>
+        <v>-121.60899999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>46569.773176</v>
+        <v>46569.773176000002</v>
       </c>
       <c r="AZ16" s="1">
         <v>12.936048</v>
       </c>
       <c r="BA16" s="1">
-        <v>1259.160000</v>
+        <v>1259.1600000000001</v>
       </c>
       <c r="BB16" s="1">
-        <v>-139.354000</v>
+        <v>-139.35400000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>46580.367722</v>
+        <v>46580.367722000003</v>
       </c>
       <c r="BE16" s="1">
         <v>12.938991</v>
       </c>
       <c r="BF16" s="1">
-        <v>1299.480000</v>
+        <v>1299.48</v>
       </c>
       <c r="BG16" s="1">
-        <v>-222.424000</v>
+        <v>-222.42400000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>46590.883901</v>
+        <v>46590.883901000001</v>
       </c>
       <c r="BJ16" s="1">
         <v>12.941912</v>
       </c>
       <c r="BK16" s="1">
-        <v>1369.420000</v>
+        <v>1369.42</v>
       </c>
       <c r="BL16" s="1">
-        <v>-360.924000</v>
+        <v>-360.92399999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>46601.704621</v>
+        <v>46601.704620999997</v>
       </c>
       <c r="BO16" s="1">
-        <v>12.944918</v>
+        <v>12.944917999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1484.450000</v>
+        <v>1484.45</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-586.808000</v>
+        <v>-586.80799999999999</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>46612.383983</v>
@@ -4289,512 +4705,512 @@
         <v>12.947884</v>
       </c>
       <c r="BU16" s="1">
-        <v>1617.060000</v>
+        <v>1617.06</v>
       </c>
       <c r="BV16" s="1">
-        <v>-842.142000</v>
+        <v>-842.14200000000005</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>46623.170481</v>
+        <v>46623.170481000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>12.950881</v>
+        <v>12.950881000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1771.300000</v>
+        <v>1771.3</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1119.970000</v>
+        <v>-1119.97</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>46635.522849</v>
+        <v>46635.522849000001</v>
       </c>
       <c r="CD16" s="1">
         <v>12.954312</v>
       </c>
       <c r="CE16" s="1">
-        <v>2195.950000</v>
+        <v>2195.9499999999998</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1795.120000</v>
+        <v>-1795.12</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>46463.809860</v>
+        <v>46463.809860000001</v>
       </c>
       <c r="B17" s="1">
-        <v>12.906614</v>
+        <v>12.906613999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1147.990000</v>
+        <v>1147.99</v>
       </c>
       <c r="D17" s="1">
-        <v>-233.726000</v>
+        <v>-233.726</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>46474.208997</v>
+        <v>46474.208997000002</v>
       </c>
       <c r="G17" s="1">
         <v>12.909502</v>
       </c>
       <c r="H17" s="1">
-        <v>1166.750000</v>
+        <v>1166.75</v>
       </c>
       <c r="I17" s="1">
-        <v>-198.585000</v>
+        <v>-198.58500000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>46484.992504</v>
+        <v>46484.992504000002</v>
       </c>
       <c r="L17" s="1">
-        <v>12.912498</v>
+        <v>12.912497999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1193.660000</v>
+        <v>1193.6600000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-142.615000</v>
+        <v>-142.61500000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>46495.560773</v>
+        <v>46495.560772999997</v>
       </c>
       <c r="Q17" s="1">
-        <v>12.915434</v>
+        <v>12.915433999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1202.510000</v>
+        <v>1202.51</v>
       </c>
       <c r="S17" s="1">
-        <v>-123.644000</v>
+        <v>-123.64400000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>46506.004524</v>
+        <v>46506.004524000004</v>
       </c>
       <c r="V17" s="1">
-        <v>12.918335</v>
+        <v>12.918335000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1210.870000</v>
+        <v>1210.8699999999999</v>
       </c>
       <c r="X17" s="1">
-        <v>-104.885000</v>
+        <v>-104.88500000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>46516.840653</v>
+        <v>46516.840652999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>12.921345</v>
+        <v>12.921345000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1219.720000</v>
+        <v>1219.72</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.664400</v>
+        <v>-89.664400000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>46527.320096</v>
+        <v>46527.320096000003</v>
       </c>
       <c r="AF17" s="1">
         <v>12.924256</v>
       </c>
       <c r="AG17" s="1">
-        <v>1224.840000</v>
+        <v>1224.8399999999999</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.760000</v>
+        <v>-85.76</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>46537.840771</v>
+        <v>46537.840771000003</v>
       </c>
       <c r="AK17" s="1">
         <v>12.927178</v>
       </c>
       <c r="AL17" s="1">
-        <v>1232.370000</v>
+        <v>1232.3699999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.586300</v>
+        <v>-89.586299999999994</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>46548.765164</v>
+        <v>46548.765163999997</v>
       </c>
       <c r="AP17" s="1">
         <v>12.930213</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1240.520000</v>
+        <v>1240.52</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.904000</v>
+        <v>-101.904</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>46559.824949</v>
+        <v>46559.824949000002</v>
       </c>
       <c r="AU17" s="1">
         <v>12.933285</v>
       </c>
       <c r="AV17" s="1">
-        <v>1250.640000</v>
+        <v>1250.6400000000001</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.566000</v>
+        <v>-121.566</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>46570.060359</v>
+        <v>46570.060359000003</v>
       </c>
       <c r="AZ17" s="1">
         <v>12.936128</v>
       </c>
       <c r="BA17" s="1">
-        <v>1259.150000</v>
+        <v>1259.1500000000001</v>
       </c>
       <c r="BB17" s="1">
-        <v>-139.352000</v>
+        <v>-139.352</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>46580.728314</v>
       </c>
       <c r="BE17" s="1">
-        <v>12.939091</v>
+        <v>12.939090999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1299.460000</v>
+        <v>1299.46</v>
       </c>
       <c r="BG17" s="1">
-        <v>-222.402000</v>
+        <v>-222.40199999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>46591.282716</v>
+        <v>46591.282716000002</v>
       </c>
       <c r="BJ17" s="1">
-        <v>12.942023</v>
+        <v>12.942023000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1369.400000</v>
+        <v>1369.4</v>
       </c>
       <c r="BL17" s="1">
-        <v>-360.876000</v>
+        <v>-360.87599999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>46602.100927</v>
       </c>
       <c r="BO17" s="1">
-        <v>12.945028</v>
+        <v>12.945028000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1484.540000</v>
+        <v>1484.54</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-586.795000</v>
+        <v>-586.79499999999996</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>46612.804632</v>
+        <v>46612.804631999999</v>
       </c>
       <c r="BT17" s="1">
         <v>12.948001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1617.080000</v>
+        <v>1617.08</v>
       </c>
       <c r="BV17" s="1">
-        <v>-842.081000</v>
+        <v>-842.08100000000002</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>46623.616917</v>
+        <v>46623.616916999999</v>
       </c>
       <c r="BY17" s="1">
         <v>12.951005</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1771.470000</v>
+        <v>1771.47</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1120.050000</v>
+        <v>-1120.05</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>46636.039680</v>
+        <v>46636.039680000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>12.954455</v>
+        <v>12.954454999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>2194.950000</v>
+        <v>2194.9499999999998</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1793.360000</v>
+        <v>-1793.36</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>46464.459155</v>
+        <v>46464.459154999997</v>
       </c>
       <c r="B18" s="1">
         <v>12.906794</v>
       </c>
       <c r="C18" s="1">
-        <v>1148.050000</v>
+        <v>1148.05</v>
       </c>
       <c r="D18" s="1">
-        <v>-233.634000</v>
+        <v>-233.63399999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>46474.860272</v>
+        <v>46474.860271999998</v>
       </c>
       <c r="G18" s="1">
-        <v>12.909683</v>
+        <v>12.909682999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>1167.540000</v>
+        <v>1167.54</v>
       </c>
       <c r="I18" s="1">
-        <v>-198.838000</v>
+        <v>-198.83799999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>46485.375911</v>
+        <v>46485.375911000003</v>
       </c>
       <c r="L18" s="1">
         <v>12.912604</v>
       </c>
       <c r="M18" s="1">
-        <v>1193.880000</v>
+        <v>1193.8800000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-142.774000</v>
+        <v>-142.774</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>46495.940732</v>
+        <v>46495.940732000003</v>
       </c>
       <c r="Q18" s="1">
-        <v>12.915539</v>
+        <v>12.915539000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1202.510000</v>
+        <v>1202.51</v>
       </c>
       <c r="S18" s="1">
-        <v>-123.686000</v>
+        <v>-123.68600000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>46506.351757</v>
+        <v>46506.351756999997</v>
       </c>
       <c r="V18" s="1">
         <v>12.918431</v>
       </c>
       <c r="W18" s="1">
-        <v>1210.910000</v>
+        <v>1210.9100000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-105.019000</v>
+        <v>-105.01900000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>46517.189806</v>
+        <v>46517.189806000002</v>
       </c>
       <c r="AA18" s="1">
-        <v>12.921442</v>
+        <v>12.921442000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1219.570000</v>
+        <v>1219.57</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.552900</v>
+        <v>-89.552899999999994</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>46527.665344</v>
+        <v>46527.665344000001</v>
       </c>
       <c r="AF18" s="1">
         <v>12.924351</v>
       </c>
       <c r="AG18" s="1">
-        <v>1224.830000</v>
+        <v>1224.83</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.697700</v>
+        <v>-85.697699999999998</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>46538.264858</v>
+        <v>46538.264858000002</v>
       </c>
       <c r="AK18" s="1">
         <v>12.927296</v>
       </c>
       <c r="AL18" s="1">
-        <v>1232.360000</v>
+        <v>1232.3599999999999</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.615600</v>
+        <v>-89.615600000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>46549.061764</v>
+        <v>46549.061763999998</v>
       </c>
       <c r="AP18" s="1">
-        <v>12.930295</v>
+        <v>12.930294999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1240.510000</v>
+        <v>1240.51</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.923000</v>
+        <v>-101.923</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>46560.127972</v>
+        <v>46560.127972000002</v>
       </c>
       <c r="AU18" s="1">
-        <v>12.933369</v>
+        <v>12.933369000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1250.660000</v>
+        <v>1250.6600000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.587000</v>
+        <v>-121.587</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>46570.419464</v>
+        <v>46570.419463999999</v>
       </c>
       <c r="AZ18" s="1">
         <v>12.936228</v>
       </c>
       <c r="BA18" s="1">
-        <v>1259.180000</v>
+        <v>1259.18</v>
       </c>
       <c r="BB18" s="1">
-        <v>-139.330000</v>
+        <v>-139.33000000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>46581.089929</v>
+        <v>46581.089929000002</v>
       </c>
       <c r="BE18" s="1">
         <v>12.939192</v>
       </c>
       <c r="BF18" s="1">
-        <v>1299.500000</v>
+        <v>1299.5</v>
       </c>
       <c r="BG18" s="1">
-        <v>-222.431000</v>
+        <v>-222.43100000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>46591.660171</v>
+        <v>46591.660171000003</v>
       </c>
       <c r="BJ18" s="1">
         <v>12.942128</v>
       </c>
       <c r="BK18" s="1">
-        <v>1369.440000</v>
+        <v>1369.44</v>
       </c>
       <c r="BL18" s="1">
-        <v>-360.907000</v>
+        <v>-360.90699999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>46602.523518</v>
+        <v>46602.523518000002</v>
       </c>
       <c r="BO18" s="1">
         <v>12.945145</v>
       </c>
       <c r="BP18" s="1">
-        <v>1484.540000</v>
+        <v>1484.54</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-586.766000</v>
+        <v>-586.76599999999996</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>46613.212302</v>
@@ -4803,75 +5219,75 @@
         <v>12.948115</v>
       </c>
       <c r="BU18" s="1">
-        <v>1617.040000</v>
+        <v>1617.04</v>
       </c>
       <c r="BV18" s="1">
-        <v>-842.052000</v>
+        <v>-842.05200000000002</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>46624.051376</v>
+        <v>46624.051376000003</v>
       </c>
       <c r="BY18" s="1">
-        <v>12.951125</v>
+        <v>12.951124999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1771.490000</v>
+        <v>1771.49</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1119.950000</v>
+        <v>-1119.95</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>46636.559487</v>
+        <v>46636.559486999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>12.954600</v>
+        <v>12.954599999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>2193.400000</v>
+        <v>2193.4</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1794.120000</v>
+        <v>-1794.12</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>46464.832146</v>
+        <v>46464.832146000001</v>
       </c>
       <c r="B19" s="1">
         <v>12.906898</v>
       </c>
       <c r="C19" s="1">
-        <v>1148.180000</v>
+        <v>1148.18</v>
       </c>
       <c r="D19" s="1">
-        <v>-233.460000</v>
+        <v>-233.46</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>46475.241157</v>
+        <v>46475.241156999997</v>
       </c>
       <c r="G19" s="1">
         <v>12.909789</v>
       </c>
       <c r="H19" s="1">
-        <v>1166.900000</v>
+        <v>1166.9000000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-198.660000</v>
+        <v>-198.66</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>46485.723112</v>
@@ -4880,58 +5296,58 @@
         <v>12.912701</v>
       </c>
       <c r="M19" s="1">
-        <v>1193.950000</v>
+        <v>1193.95</v>
       </c>
       <c r="N19" s="1">
-        <v>-142.835000</v>
+        <v>-142.83500000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>46496.288738</v>
+        <v>46496.288738000003</v>
       </c>
       <c r="Q19" s="1">
-        <v>12.915636</v>
+        <v>12.915635999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1202.480000</v>
+        <v>1202.48</v>
       </c>
       <c r="S19" s="1">
-        <v>-123.659000</v>
+        <v>-123.65900000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>46506.694491</v>
+        <v>46506.694491000002</v>
       </c>
       <c r="V19" s="1">
         <v>12.918526</v>
       </c>
       <c r="W19" s="1">
-        <v>1210.880000</v>
+        <v>1210.8800000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-104.935000</v>
+        <v>-104.935</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>46517.618349</v>
+        <v>46517.618348999997</v>
       </c>
       <c r="AA19" s="1">
-        <v>12.921561</v>
+        <v>12.921561000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1219.400000</v>
+        <v>1219.4000000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.764500</v>
+        <v>-89.764499999999998</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>46528.094847</v>
@@ -4940,360 +5356,360 @@
         <v>12.924471</v>
       </c>
       <c r="AG19" s="1">
-        <v>1224.830000</v>
+        <v>1224.83</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.747300</v>
+        <v>-85.747299999999996</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>46538.544561</v>
+        <v>46538.544561000002</v>
       </c>
       <c r="AK19" s="1">
-        <v>12.927373</v>
+        <v>12.927372999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1232.350000</v>
+        <v>1232.3499999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.634200</v>
+        <v>-89.634200000000007</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>46549.422818</v>
+        <v>46549.422817999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>12.930395</v>
+        <v>12.930395000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1240.540000</v>
+        <v>1240.54</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.915000</v>
+        <v>-101.91500000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>46560.496532</v>
+        <v>46560.496531999997</v>
       </c>
       <c r="AU19" s="1">
-        <v>12.933471</v>
+        <v>12.933471000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1250.630000</v>
+        <v>1250.6300000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.597000</v>
+        <v>-121.59699999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>46570.779094</v>
+        <v>46570.779093999998</v>
       </c>
       <c r="AZ19" s="1">
         <v>12.936328</v>
       </c>
       <c r="BA19" s="1">
-        <v>1259.160000</v>
+        <v>1259.1600000000001</v>
       </c>
       <c r="BB19" s="1">
-        <v>-139.332000</v>
+        <v>-139.33199999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>46581.813096</v>
+        <v>46581.813095999998</v>
       </c>
       <c r="BE19" s="1">
-        <v>12.939393</v>
+        <v>12.939393000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1299.500000</v>
+        <v>1299.5</v>
       </c>
       <c r="BG19" s="1">
-        <v>-222.425000</v>
+        <v>-222.42500000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>46592.409594</v>
+        <v>46592.409593999997</v>
       </c>
       <c r="BJ19" s="1">
-        <v>12.942336</v>
+        <v>12.942335999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1369.430000</v>
+        <v>1369.43</v>
       </c>
       <c r="BL19" s="1">
-        <v>-360.914000</v>
+        <v>-360.91399999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>46602.916844</v>
+        <v>46602.916843999999</v>
       </c>
       <c r="BO19" s="1">
         <v>12.945255</v>
       </c>
       <c r="BP19" s="1">
-        <v>1484.470000</v>
+        <v>1484.47</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-586.793000</v>
+        <v>-586.79300000000001</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>46613.648783</v>
+        <v>46613.648782999997</v>
       </c>
       <c r="BT19" s="1">
         <v>12.948236</v>
       </c>
       <c r="BU19" s="1">
-        <v>1617.000000</v>
+        <v>1617</v>
       </c>
       <c r="BV19" s="1">
-        <v>-841.935000</v>
+        <v>-841.93499999999995</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>46624.470000</v>
+        <v>46624.47</v>
       </c>
       <c r="BY19" s="1">
-        <v>12.951242</v>
+        <v>12.951242000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1771.450000</v>
+        <v>1771.45</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1119.900000</v>
+        <v>-1119.9000000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>46637.390289</v>
+        <v>46637.390289000003</v>
       </c>
       <c r="CD19" s="1">
         <v>12.954831</v>
       </c>
       <c r="CE19" s="1">
-        <v>2194.610000</v>
+        <v>2194.61</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1796.010000</v>
+        <v>-1796.01</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>46465.178854</v>
+        <v>46465.178853999998</v>
       </c>
       <c r="B20" s="1">
-        <v>12.906994</v>
+        <v>12.906993999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1147.850000</v>
+        <v>1147.8499999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-233.632000</v>
+        <v>-233.63200000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>46475.585908</v>
+        <v>46475.585908000001</v>
       </c>
       <c r="G20" s="1">
-        <v>12.909885</v>
+        <v>12.909884999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1166.940000</v>
+        <v>1166.94</v>
       </c>
       <c r="I20" s="1">
-        <v>-198.657000</v>
+        <v>-198.65700000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>46486.070312</v>
+        <v>46486.070312000003</v>
       </c>
       <c r="L20" s="1">
-        <v>12.912797</v>
+        <v>12.912796999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1194.010000</v>
+        <v>1194.01</v>
       </c>
       <c r="N20" s="1">
-        <v>-142.949000</v>
+        <v>-142.94900000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>46496.890536</v>
+        <v>46496.890535999999</v>
       </c>
       <c r="Q20" s="1">
         <v>12.915803</v>
       </c>
       <c r="R20" s="1">
-        <v>1202.430000</v>
+        <v>1202.43</v>
       </c>
       <c r="S20" s="1">
-        <v>-123.570000</v>
+        <v>-123.57</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>46507.121514</v>
+        <v>46507.121513999999</v>
       </c>
       <c r="V20" s="1">
         <v>12.918645</v>
       </c>
       <c r="W20" s="1">
-        <v>1210.910000</v>
+        <v>1210.9100000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-104.981000</v>
+        <v>-104.98099999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>46517.894620</v>
+        <v>46517.894619999999</v>
       </c>
       <c r="AA20" s="1">
         <v>12.921637</v>
       </c>
       <c r="AB20" s="1">
-        <v>1219.620000</v>
+        <v>1219.6199999999999</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.636800</v>
+        <v>-89.636799999999994</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>46528.374094</v>
+        <v>46528.374093999999</v>
       </c>
       <c r="AF20" s="1">
         <v>12.924548</v>
       </c>
       <c r="AG20" s="1">
-        <v>1224.820000</v>
+        <v>1224.82</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.706800</v>
+        <v>-85.706800000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>46538.893281</v>
+        <v>46538.893280999997</v>
       </c>
       <c r="AK20" s="1">
-        <v>12.927470</v>
+        <v>12.92747</v>
       </c>
       <c r="AL20" s="1">
-        <v>1232.350000</v>
+        <v>1232.3499999999999</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.641500</v>
+        <v>-89.641499999999994</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>46549.780967</v>
+        <v>46549.780966999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>12.930495</v>
+        <v>12.930495000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1240.520000</v>
+        <v>1240.52</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.892000</v>
+        <v>-101.892</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>46560.861555</v>
+        <v>46560.861555000003</v>
       </c>
       <c r="AU20" s="1">
-        <v>12.933573</v>
+        <v>12.933573000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1250.620000</v>
+        <v>1250.6199999999999</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.593000</v>
+        <v>-121.593</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>46571.496809</v>
+        <v>46571.496808999997</v>
       </c>
       <c r="AZ20" s="1">
         <v>12.936527</v>
       </c>
       <c r="BA20" s="1">
-        <v>1259.140000</v>
+        <v>1259.1400000000001</v>
       </c>
       <c r="BB20" s="1">
-        <v>-139.340000</v>
+        <v>-139.34</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>46582.174679</v>
+        <v>46582.174679000003</v>
       </c>
       <c r="BE20" s="1">
-        <v>12.939493</v>
+        <v>12.939493000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1299.480000</v>
+        <v>1299.48</v>
       </c>
       <c r="BG20" s="1">
-        <v>-222.409000</v>
+        <v>-222.40899999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>46592.784106</v>
+        <v>46592.784105999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>12.942440</v>
+        <v>12.94244</v>
       </c>
       <c r="BK20" s="1">
-        <v>1369.420000</v>
+        <v>1369.42</v>
       </c>
       <c r="BL20" s="1">
-        <v>-360.918000</v>
+        <v>-360.91800000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>46603.335991</v>
@@ -5302,422 +5718,422 @@
         <v>12.945371</v>
       </c>
       <c r="BP20" s="1">
-        <v>1484.520000</v>
+        <v>1484.52</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-586.816000</v>
+        <v>-586.81600000000003</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>46614.381869</v>
+        <v>46614.381868999997</v>
       </c>
       <c r="BT20" s="1">
         <v>12.948439</v>
       </c>
       <c r="BU20" s="1">
-        <v>1617.130000</v>
+        <v>1617.13</v>
       </c>
       <c r="BV20" s="1">
-        <v>-842.018000</v>
+        <v>-842.01800000000003</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>46625.199120</v>
+        <v>46625.199119999997</v>
       </c>
       <c r="BY20" s="1">
         <v>12.951444</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1771.310000</v>
+        <v>1771.31</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1119.940000</v>
+        <v>-1119.94</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>46637.597615</v>
+        <v>46637.597614999999</v>
       </c>
       <c r="CD20" s="1">
         <v>12.954888</v>
       </c>
       <c r="CE20" s="1">
-        <v>2195.960000</v>
+        <v>2195.96</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1794.640000</v>
+        <v>-1794.64</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>46465.518610</v>
+        <v>46465.518609999999</v>
       </c>
       <c r="B21" s="1">
-        <v>12.907089</v>
+        <v>12.907088999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1148.090000</v>
+        <v>1148.0899999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-233.318000</v>
+        <v>-233.31800000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>46475.929605</v>
+        <v>46475.929604999998</v>
       </c>
       <c r="G21" s="1">
-        <v>12.909980</v>
+        <v>12.909979999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>1166.500000</v>
+        <v>1166.5</v>
       </c>
       <c r="I21" s="1">
-        <v>-198.904000</v>
+        <v>-198.904</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>46486.502855</v>
+        <v>46486.502854999999</v>
       </c>
       <c r="L21" s="1">
         <v>12.912917</v>
       </c>
       <c r="M21" s="1">
-        <v>1194.130000</v>
+        <v>1194.1300000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-142.892000</v>
+        <v>-142.892</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>46496.998664</v>
+        <v>46496.998663999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>12.915833</v>
+        <v>12.915832999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1202.470000</v>
+        <v>1202.47</v>
       </c>
       <c r="S21" s="1">
-        <v>-123.510000</v>
+        <v>-123.51</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>46507.393354</v>
       </c>
       <c r="V21" s="1">
-        <v>12.918720</v>
+        <v>12.91872</v>
       </c>
       <c r="W21" s="1">
-        <v>1210.800000</v>
+        <v>1210.8</v>
       </c>
       <c r="X21" s="1">
-        <v>-105.021000</v>
+        <v>-105.021</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>46518.242317</v>
+        <v>46518.242316999997</v>
       </c>
       <c r="AA21" s="1">
-        <v>12.921734</v>
+        <v>12.921734000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1219.720000</v>
+        <v>1219.72</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.724500</v>
+        <v>-89.724500000000006</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>46528.719806</v>
+        <v>46528.719806000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>12.924644</v>
+        <v>12.924644000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1224.820000</v>
+        <v>1224.82</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.716800</v>
+        <v>-85.716800000000006</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>46539.241938</v>
+        <v>46539.241937999999</v>
       </c>
       <c r="AK21" s="1">
         <v>12.927567</v>
       </c>
       <c r="AL21" s="1">
-        <v>1232.360000</v>
+        <v>1232.3599999999999</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.600900</v>
+        <v>-89.600899999999996</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>46550.500633</v>
+        <v>46550.500633000003</v>
       </c>
       <c r="AP21" s="1">
         <v>12.930695</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1240.540000</v>
+        <v>1240.54</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.899000</v>
+        <v>-101.899</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>46561.591170</v>
+        <v>46561.59117</v>
       </c>
       <c r="AU21" s="1">
-        <v>12.933775</v>
+        <v>12.933775000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1250.640000</v>
+        <v>1250.6400000000001</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.604000</v>
+        <v>-121.604</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>46571.854885</v>
+        <v>46571.854885000001</v>
       </c>
       <c r="AZ21" s="1">
         <v>12.936626</v>
       </c>
       <c r="BA21" s="1">
-        <v>1259.150000</v>
+        <v>1259.1500000000001</v>
       </c>
       <c r="BB21" s="1">
-        <v>-139.352000</v>
+        <v>-139.352</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>46582.536727</v>
+        <v>46582.536726999999</v>
       </c>
       <c r="BE21" s="1">
         <v>12.939594</v>
       </c>
       <c r="BF21" s="1">
-        <v>1299.440000</v>
+        <v>1299.44</v>
       </c>
       <c r="BG21" s="1">
-        <v>-222.407000</v>
+        <v>-222.40700000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>46593.160074</v>
+        <v>46593.160073999999</v>
       </c>
       <c r="BJ21" s="1">
         <v>12.942544</v>
       </c>
       <c r="BK21" s="1">
-        <v>1369.410000</v>
+        <v>1369.41</v>
       </c>
       <c r="BL21" s="1">
-        <v>-360.884000</v>
+        <v>-360.88400000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>46604.048716</v>
+        <v>46604.048715999998</v>
       </c>
       <c r="BO21" s="1">
-        <v>12.945569</v>
+        <v>12.945569000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1484.510000</v>
+        <v>1484.51</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-586.788000</v>
+        <v>-586.78800000000001</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>46614.524220</v>
+        <v>46614.524219999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>12.948479</v>
+        <v>12.948479000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1617.100000</v>
+        <v>1617.1</v>
       </c>
       <c r="BV21" s="1">
-        <v>-841.935000</v>
+        <v>-841.93499999999995</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>46625.318159</v>
+        <v>46625.318159000002</v>
       </c>
       <c r="BY21" s="1">
-        <v>12.951477</v>
+        <v>12.951477000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1771.380000</v>
+        <v>1771.38</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1120.080000</v>
+        <v>-1120.08</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>46638.113984</v>
+        <v>46638.113984000003</v>
       </c>
       <c r="CD21" s="1">
-        <v>12.955032</v>
+        <v>12.955031999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>2195.740000</v>
+        <v>2195.7399999999998</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1794.700000</v>
+        <v>-1794.7</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>46465.939715</v>
       </c>
       <c r="B22" s="1">
-        <v>12.907205</v>
+        <v>12.907204999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1148.010000</v>
+        <v>1148.01</v>
       </c>
       <c r="D22" s="1">
-        <v>-233.447000</v>
+        <v>-233.447</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>46476.350211</v>
+        <v>46476.350210999997</v>
       </c>
       <c r="G22" s="1">
         <v>12.910097</v>
       </c>
       <c r="H22" s="1">
-        <v>1166.460000</v>
+        <v>1166.46</v>
       </c>
       <c r="I22" s="1">
-        <v>-199.160000</v>
+        <v>-199.16</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>46486.783061</v>
+        <v>46486.783061000002</v>
       </c>
       <c r="L22" s="1">
         <v>12.912995</v>
       </c>
       <c r="M22" s="1">
-        <v>1194.040000</v>
+        <v>1194.04</v>
       </c>
       <c r="N22" s="1">
-        <v>-142.843000</v>
+        <v>-142.84299999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>46497.334991</v>
+        <v>46497.334991000003</v>
       </c>
       <c r="Q22" s="1">
-        <v>12.915926</v>
+        <v>12.915926000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1202.500000</v>
+        <v>1202.5</v>
       </c>
       <c r="S22" s="1">
-        <v>-123.584000</v>
+        <v>-123.584</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>46507.736586</v>
+        <v>46507.736585999999</v>
       </c>
       <c r="V22" s="1">
         <v>12.918816</v>
       </c>
       <c r="W22" s="1">
-        <v>1210.970000</v>
+        <v>1210.97</v>
       </c>
       <c r="X22" s="1">
-        <v>-105.004000</v>
+        <v>-105.004</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>46518.594014</v>
+        <v>46518.594014000002</v>
       </c>
       <c r="AA22" s="1">
         <v>12.921832</v>
       </c>
       <c r="AB22" s="1">
-        <v>1219.650000</v>
+        <v>1219.6500000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.559900</v>
+        <v>-89.559899999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>46529.061053</v>
+        <v>46529.061052999998</v>
       </c>
       <c r="AF22" s="1">
-        <v>12.924739</v>
+        <v>12.924739000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1224.820000</v>
+        <v>1224.82</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.717600</v>
+        <v>-85.717600000000004</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>46539.941327</v>
@@ -5726,13 +6142,13 @@
         <v>12.927761</v>
       </c>
       <c r="AL22" s="1">
-        <v>1232.350000</v>
+        <v>1232.3499999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.616000</v>
+        <v>-89.616</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>46550.863202</v>
@@ -5741,375 +6157,375 @@
         <v>12.930795</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1240.540000</v>
+        <v>1240.54</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.888000</v>
+        <v>-101.88800000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>46561.977595</v>
+        <v>46561.977594999997</v>
       </c>
       <c r="AU22" s="1">
         <v>12.933883</v>
       </c>
       <c r="AV22" s="1">
-        <v>1250.650000</v>
+        <v>1250.6500000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.579000</v>
+        <v>-121.57899999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>46572.212500</v>
+        <v>46572.212500000001</v>
       </c>
       <c r="AZ22" s="1">
         <v>12.936726</v>
       </c>
       <c r="BA22" s="1">
-        <v>1259.150000</v>
+        <v>1259.1500000000001</v>
       </c>
       <c r="BB22" s="1">
-        <v>-139.326000</v>
+        <v>-139.32599999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>46583.205370</v>
+        <v>46583.205370000003</v>
       </c>
       <c r="BE22" s="1">
         <v>12.939779</v>
       </c>
       <c r="BF22" s="1">
-        <v>1299.460000</v>
+        <v>1299.46</v>
       </c>
       <c r="BG22" s="1">
-        <v>-222.427000</v>
+        <v>-222.42699999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>46593.871305</v>
+        <v>46593.871305000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>12.942742</v>
+        <v>12.942742000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1369.400000</v>
+        <v>1369.4</v>
       </c>
       <c r="BL22" s="1">
-        <v>-360.942000</v>
+        <v>-360.94200000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>46604.174202</v>
+        <v>46604.174202000002</v>
       </c>
       <c r="BO22" s="1">
-        <v>12.945604</v>
+        <v>12.945603999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1484.490000</v>
+        <v>1484.49</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-586.800000</v>
+        <v>-586.79999999999995</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>46614.939404</v>
+        <v>46614.939403999997</v>
       </c>
       <c r="BT22" s="1">
         <v>12.948594</v>
       </c>
       <c r="BU22" s="1">
-        <v>1617.130000</v>
+        <v>1617.13</v>
       </c>
       <c r="BV22" s="1">
-        <v>-841.858000</v>
+        <v>-841.85799999999995</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>46625.767065</v>
       </c>
       <c r="BY22" s="1">
-        <v>12.951602</v>
+        <v>12.951601999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1771.310000</v>
+        <v>1771.31</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1120.110000</v>
+        <v>-1120.1099999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>46638.664012</v>
+        <v>46638.664012000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>12.955184</v>
+        <v>12.955183999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>2195.620000</v>
+        <v>2195.62</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1795.860000</v>
+        <v>-1795.86</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>46466.220417</v>
+        <v>46466.220416999997</v>
       </c>
       <c r="B23" s="1">
         <v>12.907283</v>
       </c>
       <c r="C23" s="1">
-        <v>1147.810000</v>
+        <v>1147.81</v>
       </c>
       <c r="D23" s="1">
-        <v>-233.410000</v>
+        <v>-233.41</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>46476.627475</v>
+        <v>46476.627475000001</v>
       </c>
       <c r="G23" s="1">
         <v>12.910174</v>
       </c>
       <c r="H23" s="1">
-        <v>1166.690000</v>
+        <v>1166.69</v>
       </c>
       <c r="I23" s="1">
-        <v>-199.159000</v>
+        <v>-199.15899999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>46487.126789</v>
+        <v>46487.126789000002</v>
       </c>
       <c r="L23" s="1">
         <v>12.913091</v>
       </c>
       <c r="M23" s="1">
-        <v>1194.030000</v>
+        <v>1194.03</v>
       </c>
       <c r="N23" s="1">
-        <v>-142.941000</v>
+        <v>-142.941</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>46497.689592</v>
+        <v>46497.689592000002</v>
       </c>
       <c r="Q23" s="1">
-        <v>12.916025</v>
+        <v>12.916024999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1202.520000</v>
+        <v>1202.52</v>
       </c>
       <c r="S23" s="1">
-        <v>-123.670000</v>
+        <v>-123.67</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>46508.079289</v>
+        <v>46508.079289000001</v>
       </c>
       <c r="V23" s="1">
         <v>12.918911</v>
       </c>
       <c r="W23" s="1">
-        <v>1210.940000</v>
+        <v>1210.94</v>
       </c>
       <c r="X23" s="1">
-        <v>-104.850000</v>
+        <v>-104.85</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>46519.288409</v>
+        <v>46519.288409000001</v>
       </c>
       <c r="AA23" s="1">
         <v>12.922025</v>
       </c>
       <c r="AB23" s="1">
-        <v>1219.710000</v>
+        <v>1219.71</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.615300</v>
+        <v>-89.615300000000005</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>46529.757437</v>
       </c>
       <c r="AF23" s="1">
-        <v>12.924933</v>
+        <v>12.924932999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>1224.840000</v>
+        <v>1224.8399999999999</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.676100</v>
+        <v>-85.676100000000005</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>46540.287502</v>
+        <v>46540.287501999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>12.927858</v>
+        <v>12.927858000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1232.340000</v>
+        <v>1232.3399999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.584700</v>
+        <v>-89.584699999999998</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>46551.221808</v>
+        <v>46551.221808000002</v>
       </c>
       <c r="AP23" s="1">
         <v>12.930895</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1240.530000</v>
+        <v>1240.53</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.949000</v>
+        <v>-101.949</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>46562.351538</v>
+        <v>46562.351538000003</v>
       </c>
       <c r="AU23" s="1">
         <v>12.933987</v>
       </c>
       <c r="AV23" s="1">
-        <v>1250.640000</v>
+        <v>1250.6400000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.583000</v>
+        <v>-121.583</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>46572.883589</v>
+        <v>46572.883588999997</v>
       </c>
       <c r="AZ23" s="1">
         <v>12.936912</v>
       </c>
       <c r="BA23" s="1">
-        <v>1259.160000</v>
+        <v>1259.1600000000001</v>
       </c>
       <c r="BB23" s="1">
-        <v>-139.350000</v>
+        <v>-139.35</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>46583.647486</v>
+        <v>46583.647486000002</v>
       </c>
       <c r="BE23" s="1">
         <v>12.939902</v>
       </c>
       <c r="BF23" s="1">
-        <v>1299.460000</v>
+        <v>1299.46</v>
       </c>
       <c r="BG23" s="1">
-        <v>-222.412000</v>
+        <v>-222.41200000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>46594.311751</v>
+        <v>46594.311751000001</v>
       </c>
       <c r="BJ23" s="1">
         <v>12.942864</v>
       </c>
       <c r="BK23" s="1">
-        <v>1369.460000</v>
+        <v>1369.46</v>
       </c>
       <c r="BL23" s="1">
-        <v>-360.910000</v>
+        <v>-360.91</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>46604.581914</v>
+        <v>46604.581914000002</v>
       </c>
       <c r="BO23" s="1">
         <v>12.945717</v>
       </c>
       <c r="BP23" s="1">
-        <v>1484.500000</v>
+        <v>1484.5</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-586.781000</v>
+        <v>-586.78099999999995</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>46615.367917</v>
+        <v>46615.367917000003</v>
       </c>
       <c r="BT23" s="1">
         <v>12.948713</v>
       </c>
       <c r="BU23" s="1">
-        <v>1617.200000</v>
+        <v>1617.2</v>
       </c>
       <c r="BV23" s="1">
-        <v>-841.929000</v>
+        <v>-841.92899999999997</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>46626.197567</v>
+        <v>46626.197567000003</v>
       </c>
       <c r="BY23" s="1">
         <v>12.951722</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1771.360000</v>
+        <v>1771.36</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1120.000000</v>
+        <v>-1120</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>46639.194765</v>
@@ -6118,195 +6534,195 @@
         <v>12.955332</v>
       </c>
       <c r="CE23" s="1">
-        <v>2196.040000</v>
+        <v>2196.04</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1794.170000</v>
+        <v>-1794.17</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>46466.559711</v>
+        <v>46466.559711000002</v>
       </c>
       <c r="B24" s="1">
         <v>12.907378</v>
       </c>
       <c r="C24" s="1">
-        <v>1147.940000</v>
+        <v>1147.94</v>
       </c>
       <c r="D24" s="1">
-        <v>-233.408000</v>
+        <v>-233.40799999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>46476.970738</v>
+        <v>46476.970738000004</v>
       </c>
       <c r="G24" s="1">
-        <v>12.910270</v>
+        <v>12.910270000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1167.200000</v>
+        <v>1167.2</v>
       </c>
       <c r="I24" s="1">
-        <v>-199.209000</v>
+        <v>-199.209</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>46487.471044</v>
+        <v>46487.471043999998</v>
       </c>
       <c r="L24" s="1">
         <v>12.913186</v>
       </c>
       <c r="M24" s="1">
-        <v>1193.960000</v>
+        <v>1193.96</v>
       </c>
       <c r="N24" s="1">
-        <v>-142.737000</v>
+        <v>-142.73699999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>46498.382541</v>
+        <v>46498.382540999999</v>
       </c>
       <c r="Q24" s="1">
         <v>12.916217</v>
       </c>
       <c r="R24" s="1">
-        <v>1202.480000</v>
+        <v>1202.48</v>
       </c>
       <c r="S24" s="1">
-        <v>-123.685000</v>
+        <v>-123.685</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>46508.768232</v>
+        <v>46508.768232000002</v>
       </c>
       <c r="V24" s="1">
-        <v>12.919102</v>
+        <v>12.919102000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1210.800000</v>
+        <v>1210.8</v>
       </c>
       <c r="X24" s="1">
-        <v>-104.930000</v>
+        <v>-104.93</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>46519.638554</v>
+        <v>46519.638553999997</v>
       </c>
       <c r="AA24" s="1">
         <v>12.922122</v>
       </c>
       <c r="AB24" s="1">
-        <v>1219.660000</v>
+        <v>1219.6600000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.595200</v>
+        <v>-89.595200000000006</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>46530.093724</v>
+        <v>46530.093723999998</v>
       </c>
       <c r="AF24" s="1">
-        <v>12.925026</v>
+        <v>12.925026000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1224.790000</v>
+        <v>1224.79</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.704100</v>
+        <v>-85.704099999999997</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>46540.638670</v>
+        <v>46540.63867</v>
       </c>
       <c r="AK24" s="1">
-        <v>12.927955</v>
+        <v>12.927955000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1232.370000</v>
+        <v>1232.3699999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.598600</v>
+        <v>-89.598600000000005</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>46551.898882</v>
+        <v>46551.898882000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>12.931083</v>
+        <v>12.931082999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1240.540000</v>
+        <v>1240.54</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.906000</v>
+        <v>-101.90600000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>46562.845063</v>
+        <v>46562.845063000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>12.934124</v>
+        <v>12.934124000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1250.670000</v>
+        <v>1250.67</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.600000</v>
+        <v>-121.6</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>46573.326516</v>
+        <v>46573.326516000001</v>
       </c>
       <c r="AZ24" s="1">
         <v>12.937035</v>
       </c>
       <c r="BA24" s="1">
-        <v>1259.150000</v>
+        <v>1259.1500000000001</v>
       </c>
       <c r="BB24" s="1">
-        <v>-139.320000</v>
+        <v>-139.32</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>46584.007365</v>
+        <v>46584.007364999998</v>
       </c>
       <c r="BE24" s="1">
         <v>12.940002</v>
       </c>
       <c r="BF24" s="1">
-        <v>1299.470000</v>
+        <v>1299.47</v>
       </c>
       <c r="BG24" s="1">
-        <v>-222.443000</v>
+        <v>-222.44300000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>46594.712518</v>
@@ -6315,542 +6731,542 @@
         <v>12.942976</v>
       </c>
       <c r="BK24" s="1">
-        <v>1369.440000</v>
+        <v>1369.44</v>
       </c>
       <c r="BL24" s="1">
-        <v>-360.931000</v>
+        <v>-360.93099999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>46604.982186</v>
+        <v>46604.982186000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>12.945828</v>
+        <v>12.945828000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1484.490000</v>
+        <v>1484.49</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-586.794000</v>
+        <v>-586.79399999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>46615.791035</v>
+        <v>46615.791035000002</v>
       </c>
       <c r="BT24" s="1">
         <v>12.948831</v>
       </c>
       <c r="BU24" s="1">
-        <v>1617.140000</v>
+        <v>1617.14</v>
       </c>
       <c r="BV24" s="1">
-        <v>-841.789000</v>
+        <v>-841.78899999999999</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>46626.623666</v>
       </c>
       <c r="BY24" s="1">
-        <v>12.951840</v>
+        <v>12.951840000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1771.240000</v>
+        <v>1771.24</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1120.020000</v>
+        <v>-1120.02</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>46639.711100</v>
+        <v>46639.7111</v>
       </c>
       <c r="CD24" s="1">
         <v>12.955475</v>
       </c>
       <c r="CE24" s="1">
-        <v>2195.700000</v>
+        <v>2195.6999999999998</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1794.790000</v>
+        <v>-1794.79</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>46466.903903</v>
+        <v>46466.903902999999</v>
       </c>
       <c r="B25" s="1">
         <v>12.907473</v>
       </c>
       <c r="C25" s="1">
-        <v>1148.060000</v>
+        <v>1148.06</v>
       </c>
       <c r="D25" s="1">
-        <v>-233.449000</v>
+        <v>-233.44900000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>46477.315462</v>
+        <v>46477.315461999999</v>
       </c>
       <c r="G25" s="1">
-        <v>12.910365</v>
+        <v>12.910365000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1165.670000</v>
+        <v>1165.67</v>
       </c>
       <c r="I25" s="1">
-        <v>-198.936000</v>
+        <v>-198.93600000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>46488.164420</v>
+        <v>46488.164420000001</v>
       </c>
       <c r="L25" s="1">
-        <v>12.913379</v>
+        <v>12.913379000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1193.960000</v>
+        <v>1193.96</v>
       </c>
       <c r="N25" s="1">
-        <v>-143.299000</v>
+        <v>-143.29900000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>46498.730693</v>
+        <v>46498.730692999998</v>
       </c>
       <c r="Q25" s="1">
         <v>12.916314</v>
       </c>
       <c r="R25" s="1">
-        <v>1202.430000</v>
+        <v>1202.43</v>
       </c>
       <c r="S25" s="1">
-        <v>-123.654000</v>
+        <v>-123.654</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>46509.110003</v>
+        <v>46509.110003000002</v>
       </c>
       <c r="V25" s="1">
         <v>12.919197</v>
       </c>
       <c r="W25" s="1">
-        <v>1210.920000</v>
+        <v>1210.92</v>
       </c>
       <c r="X25" s="1">
-        <v>-104.918000</v>
+        <v>-104.91800000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>46519.987251</v>
+        <v>46519.987250999999</v>
       </c>
       <c r="AA25" s="1">
         <v>12.922219</v>
       </c>
       <c r="AB25" s="1">
-        <v>1219.560000</v>
+        <v>1219.56</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.559500</v>
+        <v>-89.5595</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>46530.753405</v>
+        <v>46530.753405000003</v>
       </c>
       <c r="AF25" s="1">
-        <v>12.925209</v>
+        <v>12.925209000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1224.830000</v>
+        <v>1224.83</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.683900</v>
+        <v>-85.683899999999994</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>46541.302354</v>
+        <v>46541.302353999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>12.928140</v>
+        <v>12.928140000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1232.360000</v>
+        <v>1232.3599999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.599900</v>
+        <v>-89.599900000000005</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>46552.335328</v>
+        <v>46552.335328000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>12.931204</v>
+        <v>12.931203999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1240.500000</v>
+        <v>1240.5</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.929000</v>
+        <v>-101.929</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>46563.074704</v>
+        <v>46563.074703999999</v>
       </c>
       <c r="AU25" s="1">
         <v>12.934187</v>
       </c>
       <c r="AV25" s="1">
-        <v>1250.640000</v>
+        <v>1250.6400000000001</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.595000</v>
+        <v>-121.595</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>46573.686620</v>
+        <v>46573.68662</v>
       </c>
       <c r="AZ25" s="1">
         <v>12.937135</v>
       </c>
       <c r="BA25" s="1">
-        <v>1259.160000</v>
+        <v>1259.1600000000001</v>
       </c>
       <c r="BB25" s="1">
-        <v>-139.325000</v>
+        <v>-139.32499999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>46584.367957</v>
+        <v>46584.367957000002</v>
       </c>
       <c r="BE25" s="1">
         <v>12.940102</v>
       </c>
       <c r="BF25" s="1">
-        <v>1299.440000</v>
+        <v>1299.44</v>
       </c>
       <c r="BG25" s="1">
-        <v>-222.418000</v>
+        <v>-222.41800000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>46595.090470</v>
+        <v>46595.090470000003</v>
       </c>
       <c r="BJ25" s="1">
-        <v>12.943081</v>
+        <v>12.943080999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1369.400000</v>
+        <v>1369.4</v>
       </c>
       <c r="BL25" s="1">
-        <v>-360.950000</v>
+        <v>-360.95</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>46605.413242</v>
+        <v>46605.413242000002</v>
       </c>
       <c r="BO25" s="1">
         <v>12.945948</v>
       </c>
       <c r="BP25" s="1">
-        <v>1484.530000</v>
+        <v>1484.53</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-586.822000</v>
+        <v>-586.822</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>46616.194251</v>
+        <v>46616.194251000001</v>
       </c>
       <c r="BT25" s="1">
         <v>12.948943</v>
       </c>
       <c r="BU25" s="1">
-        <v>1617.180000</v>
+        <v>1617.18</v>
       </c>
       <c r="BV25" s="1">
-        <v>-841.822000</v>
+        <v>-841.822</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>46627.045765</v>
+        <v>46627.045765000003</v>
       </c>
       <c r="BY25" s="1">
         <v>12.951957</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1771.340000</v>
+        <v>1771.34</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1120.090000</v>
+        <v>-1120.0899999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>46640.266090</v>
+        <v>46640.266089999997</v>
       </c>
       <c r="CD25" s="1">
         <v>12.955629</v>
       </c>
       <c r="CE25" s="1">
-        <v>2195.430000</v>
+        <v>2195.4299999999998</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1796.100000</v>
+        <v>-1796.1</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>46467.586431</v>
+        <v>46467.586431000003</v>
       </c>
       <c r="B26" s="1">
-        <v>12.907663</v>
+        <v>12.907662999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1148.070000</v>
+        <v>1148.07</v>
       </c>
       <c r="D26" s="1">
-        <v>-233.313000</v>
+        <v>-233.31299999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>46478.007877</v>
+        <v>46478.007876999996</v>
       </c>
       <c r="G26" s="1">
         <v>12.910558</v>
       </c>
       <c r="H26" s="1">
-        <v>1166.380000</v>
+        <v>1166.3800000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-198.567000</v>
+        <v>-198.56700000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>46488.514099</v>
       </c>
       <c r="L26" s="1">
-        <v>12.913476</v>
+        <v>12.913475999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1193.950000</v>
+        <v>1193.95</v>
       </c>
       <c r="N26" s="1">
-        <v>-142.773000</v>
+        <v>-142.773</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>46499.081897</v>
+        <v>46499.081896999996</v>
       </c>
       <c r="Q26" s="1">
-        <v>12.916412</v>
+        <v>12.916411999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1202.420000</v>
+        <v>1202.42</v>
       </c>
       <c r="S26" s="1">
-        <v>-123.616000</v>
+        <v>-123.616</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>46509.454210</v>
+        <v>46509.454210000004</v>
       </c>
       <c r="V26" s="1">
         <v>12.919293</v>
       </c>
       <c r="W26" s="1">
-        <v>1210.880000</v>
+        <v>1210.8800000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-104.843000</v>
+        <v>-104.843</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>46520.651917</v>
+        <v>46520.651917000003</v>
       </c>
       <c r="AA26" s="1">
-        <v>12.922403</v>
+        <v>12.922402999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1219.660000</v>
+        <v>1219.6600000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.614400</v>
+        <v>-89.614400000000003</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>46531.121467</v>
+        <v>46531.121466999997</v>
       </c>
       <c r="AF26" s="1">
         <v>12.925312</v>
       </c>
       <c r="AG26" s="1">
-        <v>1224.870000</v>
+        <v>1224.8699999999999</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.697500</v>
+        <v>-85.697500000000005</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>46541.679278</v>
+        <v>46541.679278000003</v>
       </c>
       <c r="AK26" s="1">
-        <v>12.928244</v>
+        <v>12.928243999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1232.390000</v>
+        <v>1232.3900000000001</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.625500</v>
+        <v>-89.625500000000002</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>46552.693438</v>
+        <v>46552.693438000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>12.931304</v>
+        <v>12.931304000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1240.520000</v>
+        <v>1240.52</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.897000</v>
+        <v>-101.89700000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>46563.439760</v>
+        <v>46563.439760000001</v>
       </c>
       <c r="AU26" s="1">
         <v>12.934289</v>
       </c>
       <c r="AV26" s="1">
-        <v>1250.640000</v>
+        <v>1250.6400000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.591000</v>
+        <v>-121.59099999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>46574.045218</v>
+        <v>46574.045217999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>12.937235</v>
+        <v>12.937234999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1259.140000</v>
+        <v>1259.1400000000001</v>
       </c>
       <c r="BB26" s="1">
-        <v>-139.350000</v>
+        <v>-139.35</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>46584.789596</v>
+        <v>46584.789596000002</v>
       </c>
       <c r="BE26" s="1">
-        <v>12.940219</v>
+        <v>12.940219000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1299.480000</v>
+        <v>1299.48</v>
       </c>
       <c r="BG26" s="1">
-        <v>-222.415000</v>
+        <v>-222.41499999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>46595.558694</v>
+        <v>46595.558693999999</v>
       </c>
       <c r="BJ26" s="1">
         <v>12.943211</v>
       </c>
       <c r="BK26" s="1">
-        <v>1369.440000</v>
+        <v>1369.44</v>
       </c>
       <c r="BL26" s="1">
-        <v>-360.886000</v>
+        <v>-360.88600000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>46605.798635</v>
+        <v>46605.798634999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>12.946055</v>
+        <v>12.946054999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1484.570000</v>
+        <v>1484.57</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-586.763000</v>
+        <v>-586.76300000000003</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>46616.612404</v>
@@ -6859,45 +7275,46 @@
         <v>12.949059</v>
       </c>
       <c r="BU26" s="1">
-        <v>1617.130000</v>
+        <v>1617.13</v>
       </c>
       <c r="BV26" s="1">
-        <v>-841.757000</v>
+        <v>-841.75699999999995</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>46627.467324</v>
+        <v>46627.467323999997</v>
       </c>
       <c r="BY26" s="1">
         <v>12.952074</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1771.440000</v>
+        <v>1771.44</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1120.030000</v>
+        <v>-1120.03</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>46640.794332</v>
+        <v>46640.794331999998</v>
       </c>
       <c r="CD26" s="1">
         <v>12.955776</v>
       </c>
       <c r="CE26" s="1">
-        <v>2196.280000</v>
+        <v>2196.2800000000002</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1793.860000</v>
+        <v>-1793.86</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>